--- a/3-climate-change/data/CO2_emissions_2012.xlsx
+++ b/3-climate-change/data/CO2_emissions_2012.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -307,7 +312,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +328,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,14 +354,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -648,16 +667,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="E1" t="s">
         <v>78</v>
       </c>
@@ -677,12 +701,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="Y2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="E3">
         <v>2010</v>
       </c>
@@ -738,4967 +762,5492 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>530658</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>501862.93520875607</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>443382.30187092227</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <v>587919</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>580704.86625308613</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>568799.01226619538</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
         <v>351457</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>355801.68247741699</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>372110.27392753854</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
         <v>9136</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>9331.3577572096074</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>10060.176780452963</v>
       </c>
-      <c r="U5">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
         <v>2439</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>2439</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>2439</v>
       </c>
-      <c r="Y5">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
         <v>1481609</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>1450139.8416964686</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>1396790.7648451091</v>
       </c>
       <c r="AC5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>23734</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>21166.354372720914</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>20765.845914453355</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>60786</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>63010.546966728834</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>62592.431131551595</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
         <v>49101</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>52099.851019304551</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>52025.046349525866</v>
       </c>
-      <c r="Q6">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
         <v>1691</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>1632.506717078272</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>1632.506717078272</v>
       </c>
-      <c r="U6">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
         <v>804</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>804</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>804</v>
       </c>
-      <c r="Y6">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
         <v>136116</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>138713.25907583255</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>137819.83011260908</v>
       </c>
       <c r="AC6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>9233</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>9609.6528517452916</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>9567.6269515737204</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>71656</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>73065.601496465577</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>74947.16053846576</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
         <v>33277</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>35176.212631758222</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>38398.014038379188</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
         <v>4692</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>4813.9813929223546</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>4895.5742978871403</v>
       </c>
-      <c r="U7">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
         <v>2134</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>2134</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>2134</v>
       </c>
-      <c r="Y7">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
         <v>120992</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>124799.44837289145</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>129942.37582630581</v>
       </c>
       <c r="AC7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>563625</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>532638.94243322231</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>473715.7747369493</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>720361</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>716781.01471628062</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>706338.60393621272</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>433835</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>443077.74612847978</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>462533.33431544359</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
         <v>15519</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>15777.845867210233</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>16588.257795418373</v>
       </c>
-      <c r="U8">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
         <v>5377</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>5377</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>5377</v>
       </c>
-      <c r="Y8">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
         <v>1738717</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>1713652.5491451928</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>1664552.9707840241</v>
       </c>
       <c r="AC8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>958.05737704918045</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1003.0860737704918</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <v>23875</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>25256.242184611139</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>25901.664279908924</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
         <v>22991</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>24262.653506814509</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>25130.655370293367</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
         <v>1360</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>1512.5319006044324</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>1512.5319006044322</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1">
         <v>49225</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>51989.484969079262</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>53547.937624577215</v>
       </c>
       <c r="AC10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>15965</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>16899.307825563006</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>16199.676481584698</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>74689</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>77139.783301736374</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>79322.463109983539</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
         <v>14372</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>14323.364893875585</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>15638.332741170256</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <v>8040</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>8716.5959606211309</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>9519.9431645184213</v>
       </c>
-      <c r="U11">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
         <v>1402</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>1402</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>1402</v>
       </c>
-      <c r="Y11">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
         <v>114468</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>118481.05198179609</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>122082.41549725691</v>
       </c>
       <c r="AC11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>4513</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>5729.3001879468329</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>7184.3066218198237</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>11861</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>13502.33342592091</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>13801.498965269277</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>2791</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>2838.0827308204025</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>3180.0854657870323</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
         <v>526</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>598.69697752518732</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>598.69697752518732</v>
       </c>
-      <c r="U12">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
         <v>14</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>14</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>14</v>
       </c>
-      <c r="Y12">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
         <v>19705</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>22682.413322213331</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>24778.588030401319</v>
       </c>
       <c r="AC12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3308</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>3554.7651596705768</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>3304.8917430995766</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>10605</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>11211.96979522836</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>11350.318923401524</v>
       </c>
-      <c r="M13">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>5140</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>5007.1593098755911</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>5565.9098416671677</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
         <v>1290</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>1465.2540050590219</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>1465.2540050590219</v>
       </c>
-      <c r="U13">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
         <v>295</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>295</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>295</v>
       </c>
-      <c r="Y13">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
         <v>20638</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>21534.148269833549</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>21981.374513227292</v>
       </c>
       <c r="AC13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <v>7657</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>7852.3447755488287</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>8160.659854368173</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
         <v>304</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>268.63330726347846</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>352.45858767821602</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
         <v>680</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>741.81818181818187</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>741.81818181818176</v>
       </c>
-      <c r="U14">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
         <v>259</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>259</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>259</v>
       </c>
-      <c r="Y14">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
         <v>8900</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>9121.7962646304895</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>9513.9366238645707</v>
       </c>
       <c r="AC14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>787</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>765.62657602506056</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>813.69387965288252</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <v>6519</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>7068.0320144679699</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>7312.1540991176016</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
         <v>3433</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>3892.5165565186358</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>4749.0864274548976</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
         <v>934</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>901.07193901858022</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>901.07193901858022</v>
       </c>
-      <c r="U15">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
         <v>4029</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>4029</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>4029</v>
       </c>
-      <c r="Y15">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
         <v>15702</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>16656.247086030249</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>17805.006345243961</v>
       </c>
       <c r="AC15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>1419</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1205.5265514769874</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>1211.4654768454477</v>
       </c>
-      <c r="M16">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
         <v>12293</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>12246.649980040565</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>11515.163797374211</v>
       </c>
-      <c r="Q16">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
         <v>109</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>109</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>109</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1">
         <v>13821</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>13561.176531517553</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>12835.629274219658</v>
       </c>
       <c r="AC16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>206</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>214.60255999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>226.49368785125628</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>34048</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>33887.513475350446</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>34846.401249632516</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>15760</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>15833.104807246575</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>16579.777943905861</v>
       </c>
-      <c r="Q17">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
         <v>1496</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>1439.9</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>1439.9</v>
       </c>
-      <c r="U17">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
         <v>3507</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>3507</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>3507</v>
       </c>
-      <c r="Y17">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1">
         <v>55017</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>54882.120842597018</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>56599.572881389635</v>
       </c>
       <c r="AC17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1249</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1269.8615341628229</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1304.7795344473843</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <v>39208</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>39595.156064085582</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>39777.996161102004</v>
       </c>
-      <c r="M18">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
         <v>2696</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>3360.1073085926587</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>3989.6498609185774</v>
       </c>
-      <c r="Q18">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
         <v>2465</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>2458.1228118161926</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>2458.1228118161926</v>
       </c>
-      <c r="U18">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
         <v>51</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>51</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>51</v>
       </c>
-      <c r="Y18">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1">
         <v>45669</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>46734.247718657265</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>47581.548368284159</v>
       </c>
       <c r="AC18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>27027</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>29391.521220417475</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>30036.928022226111</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <v>209881</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>216718.90158842658</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>221684.62211962903</v>
       </c>
-      <c r="M19">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
         <v>79780</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>82032.272401048001</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>86701.120036249587</v>
       </c>
-      <c r="Q19">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
         <v>16900</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>17942.991776462724</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>18746.338980360015</v>
       </c>
-      <c r="U19">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
         <v>9557</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>9557</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>9557</v>
       </c>
-      <c r="Y19">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
         <v>343145</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>355642.68698635476</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>366726.00915846473</v>
       </c>
       <c r="AC19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>3540</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>3593.0023640661943</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>2745.3600147517732</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <v>8993</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>8436.4959710439762</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>8361.3321199683851</v>
       </c>
-      <c r="M21">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
         <v>5131</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>4821.3648029744254</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>4602.9450665527984</v>
       </c>
-      <c r="Q21">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
         <v>579</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>602.5465444287729</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>602.5465444287729</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
         <v>18243</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>17453.409682513371</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>16312.18374570173</v>
       </c>
       <c r="AC21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>2322</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>2877.9409724367038</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>3041.3676538582768</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
         <v>4910</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>5377.3486554591136</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>5592.4426016774833</v>
       </c>
-      <c r="Q22">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
         <v>174</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>197.26348709929633</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>197.26348709929633</v>
       </c>
-      <c r="U22">
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
         <v>5066</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>5066</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>5066</v>
       </c>
-      <c r="Y22">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>12472</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>13518.553114995115</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>13897.073742635057</v>
       </c>
       <c r="AC22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>521</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>4495</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>5521.9543971873818</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>5599.9240600165667</v>
       </c>
-      <c r="M23">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>11336</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>10522.605701693959</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>10668.319331588844</v>
       </c>
-      <c r="Q23">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
         <v>616</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>638.97594350033103</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>638.97594350033103</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>16968</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>16683.536042381675</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>16907.219335105743</v>
       </c>
       <c r="AC23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>92</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>3253</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>3237.2183141297755</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2938.3526379624013</v>
       </c>
-      <c r="I24">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>14678</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>14147.475162051562</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>13413.958843106875</v>
       </c>
-      <c r="M24">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <v>10593</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>9333.5448653490639</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>9515.2149845249423</v>
       </c>
-      <c r="Q24">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
         <v>1186</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>1183.0084842925935</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>1183.0084842925935</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>29710</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <v>27901.246825822996</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <v>27050.534949886813</v>
       </c>
       <c r="AC24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>7298</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>8652.058374889999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>7514.5700167808745</v>
       </c>
-      <c r="I25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>3042</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>2960.0159137577002</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>2972.2573446093802</v>
       </c>
-      <c r="M25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>1437</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>1645.2010552806109</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>1533.2292990055223</v>
       </c>
-      <c r="Q25">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
         <v>408</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>394.30315361139367</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>394.30315361139367</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>12185</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>13651.578497539704</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>12414.359814007172</v>
       </c>
       <c r="AC25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>19805</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>19634.812713451582</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>18147.719245195807</v>
       </c>
-      <c r="I26">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>5479</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>5413.996140760376</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>5441.6969878747923</v>
       </c>
-      <c r="M26">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>4735</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>4292.6244612068967</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>4177.8211206896558</v>
       </c>
-      <c r="Q26">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
         <v>455</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>520.97159940209269</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>520.97159940209269</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>30474</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>29862.404914820949</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>28288.208953162346</v>
       </c>
       <c r="AC26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>4172</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>3524.2852726508445</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>2706.4319760515878</v>
       </c>
-      <c r="I27">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>5353</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>5141.5469750889679</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>4829.1298932384343</v>
       </c>
-      <c r="M27">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
         <v>2763</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>2314.1617656903873</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>2159.2711207042553</v>
       </c>
-      <c r="Q27">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
         <v>272</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>244.8</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>244.8</v>
       </c>
-      <c r="U27">
+      <c r="T27" s="1"/>
+      <c r="U27" s="1">
         <v>68</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>68</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>68</v>
       </c>
-      <c r="Y27">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>12628</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>11292.794013430199</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>10007.632989994278</v>
       </c>
       <c r="AC27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>7345</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>5787.641662796098</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>4924.9879650105204</v>
       </c>
-      <c r="I28">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <v>6980</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>6505.7223395552328</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>6118.4899950985855</v>
       </c>
-      <c r="M28">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <v>2397</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>2091.6079061481055</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>1868.8848768025862</v>
       </c>
-      <c r="Q28">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
         <v>143</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>143</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>143</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>16865</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>14527.971908499436</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>13055.362836911692</v>
       </c>
       <c r="AC28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>12461</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>10471.707338716835</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>12612.46736346635</v>
       </c>
-      <c r="I29">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <v>57001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>56484.681723425521</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>54617.204304199819</v>
       </c>
-      <c r="M29">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>26569</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>22887.6836738948</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>23795.44311176446</v>
       </c>
-      <c r="Q29">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
         <v>2489</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>2687.4506611845759</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>2687.4506611845759</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
+      <c r="T29" s="1"/>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>98520</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>92531.523397221725</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>93712.565440615203</v>
       </c>
       <c r="AC29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>81385</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>80750.765274314152</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>84124.894014962527</v>
       </c>
-      <c r="I30">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>71963</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>69836.884239719817</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>69556.229475235057</v>
       </c>
-      <c r="M30">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>45848</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>41013.438674737197</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>41407.798661994289</v>
       </c>
-      <c r="Q30">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
         <v>4066</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>4558.7043289319736</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>4621.2268092929962</v>
       </c>
-      <c r="U30">
+      <c r="T30" s="1"/>
+      <c r="U30" s="1">
         <v>6</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>6</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>6</v>
       </c>
-      <c r="Y30">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>203268</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>196165.79251770317</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>199716.14896148487</v>
       </c>
       <c r="AC30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>8457</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>8597.4683766887119</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>8578.1157098795975</v>
       </c>
-      <c r="I31">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <v>11130</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>10462.020650043427</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>9489.2027345630158</v>
       </c>
-      <c r="M31">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
         <v>2020</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>2510.1999452204877</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>2318.2141878937282</v>
       </c>
-      <c r="Q31">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
         <v>2040</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>1904</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>1904</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>23647</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>23473.688971952626</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="1">
         <v>22289.532632336344</v>
       </c>
       <c r="AC31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2912</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>2970.0824881676804</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>2921.3505647866882</v>
       </c>
-      <c r="I32">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>4317</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>4147.5579380413701</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>3838.5249347454742</v>
       </c>
-      <c r="M32">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
         <v>6131</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>5842.6954547367823</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>5480.3463515510739</v>
       </c>
-      <c r="Q32">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
         <v>435</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>435</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>435</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>13795</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <v>13395.335880945833</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <v>12675.221851083235</v>
       </c>
       <c r="AC32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>2206</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>2248.6967741935482</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>2636.5258064516129</v>
       </c>
-      <c r="I33">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <v>5415</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>4746.3590582079796</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>4393.863533474324</v>
       </c>
-      <c r="M33">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
         <v>2933</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>2580.2246766537633</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>2505.3034446292681</v>
       </c>
-      <c r="Q33">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
         <v>354</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>354</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>354</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
+      <c r="T33" s="1"/>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>10908</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>9929.2805090552902</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="1">
         <v>9889.6927845552054</v>
       </c>
       <c r="AC33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>14655</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>16512.51714725644</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>16613.916974313637</v>
       </c>
-      <c r="I34">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
         <v>48702</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>46984.592751891578</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>42783.415646451896</v>
       </c>
-      <c r="M34">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
         <v>42507</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>39868.91357057642</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>38379.803424880403</v>
       </c>
-      <c r="Q34">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
         <v>4937</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>4752.1925133689838</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>4591.4903510811437</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
+      <c r="T34" s="1"/>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>110801</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <v>108118.21598309341</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="1">
         <v>102368.62639672708</v>
       </c>
       <c r="AC34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>35803</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>38527.452686482538</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>39622.105168691734</v>
       </c>
-      <c r="I35">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <v>12795</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>15988.557177606399</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>17660.754985782289</v>
       </c>
-      <c r="M35">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
         <v>18321</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>20702.729999999981</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>21294.990452352937</v>
       </c>
-      <c r="Q35">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
         <v>909</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>1038.9736763386179</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>1038.9736763386179</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>67828</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <v>76257.713540427532</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="1">
         <v>79616.824283165581</v>
       </c>
       <c r="AC35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>242</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>251.66735230419607</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>238.59465709307025</v>
       </c>
-      <c r="I36">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <v>1787</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>1725.3404444774235</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>1710.157607687456</v>
       </c>
-      <c r="M36">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
         <v>1556</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>1695.7754250882258</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>1656.6383060635228</v>
       </c>
-      <c r="Q36">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
         <v>113</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>113</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>113</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>3698</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <v>3785.7832218698454</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="1">
         <v>3718.3905708440489</v>
       </c>
       <c r="AC36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>6938</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>6823.7462611325827</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>7406.6735002520591</v>
       </c>
-      <c r="I37">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <v>17840</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>17918.554332425068</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>17161.788337874659</v>
       </c>
-      <c r="M37">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
         <v>24487</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>21375.194946072461</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>20465.929331211661</v>
       </c>
-      <c r="Q37">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
         <v>367</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>367</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="1">
         <v>367</v>
       </c>
-      <c r="U37">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
         <v>20</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="1">
         <v>20</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="1">
         <v>20</v>
       </c>
-      <c r="Y37">
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>49652</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <v>46504.495539630108</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="1">
         <v>45421.391169338378</v>
       </c>
       <c r="AC37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>868</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>899.94532071503693</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>898.11987381703477</v>
       </c>
-      <c r="I38">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>10328</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>10199.92443588173</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>10363.232482588508</v>
       </c>
-      <c r="M38">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1">
         <v>3890</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>4103.9082722029434</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>4072.6916032210447</v>
       </c>
-      <c r="Q38">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1">
         <v>224</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>217.21212121212122</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>217.21212121212119</v>
       </c>
-      <c r="U38">
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
         <v>284</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="1">
         <v>284</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>284</v>
       </c>
-      <c r="Y38">
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1">
         <v>15594</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>15704.990150011832</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <v>15835.25608083871</v>
       </c>
       <c r="AC38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>58290</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>57959.862597592095</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>55810.010843703181</v>
       </c>
-      <c r="I39">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>18112</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>18051.640230659777</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>17049.939339474276</v>
       </c>
-      <c r="M39">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
         <v>7998</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>8106.3416778609308</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <v>8547.0986418336015</v>
       </c>
-      <c r="Q39">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
         <v>2111</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="1">
         <v>2482.6812547432328</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="1">
         <v>2482.6812547432328</v>
       </c>
-      <c r="U39">
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
         <v>5</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="1">
         <v>5</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="1">
         <v>5</v>
       </c>
-      <c r="Y39">
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>86516</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <v>86605.525760856035</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="1">
         <v>83894.730079754285</v>
       </c>
       <c r="AC39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>1708</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>2276.6453172205438</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>2999.0187232791723</v>
       </c>
-      <c r="I40">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>8033</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>7440.3584649292452</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>6998.2150178906222</v>
       </c>
-      <c r="M40">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
         <v>2804</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>2836.1725560193286</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <v>2564.2332254870221</v>
       </c>
-      <c r="Q40">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
         <v>1734</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="1">
         <v>1806.25</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>1806.25</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
+      <c r="T40" s="1"/>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1">
         <v>14279</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="1">
         <v>14359.426338169118</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="1">
         <v>14367.716966656817</v>
       </c>
       <c r="AC40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>7490</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>9066.0094645391455</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>8231.2532037972942</v>
       </c>
-      <c r="I41">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
         <v>6293</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>6554.6990746029933</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>6338.2940706043646</v>
       </c>
-      <c r="M41">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
         <v>6738</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>6910.6801679063256</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>6689.3716768539653</v>
       </c>
-      <c r="Q41">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
         <v>953</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="1">
         <v>951.91210045662103</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="1">
         <v>951.91210045662115</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
+      <c r="T41" s="1"/>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1">
         <v>21474</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <v>23483.300807505086</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="1">
         <v>22210.831051712248</v>
       </c>
       <c r="AC41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>122521</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>127178.50892164468</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>127471.01949216447</v>
       </c>
-      <c r="I42">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
         <v>98406</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>105161.66757144345</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>108071.07540682354</v>
       </c>
-      <c r="M42">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
         <v>239072</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>245085.48607339925</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <v>240277.71673058215</v>
       </c>
-      <c r="Q42">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1">
         <v>6854</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="1">
         <v>7561.1587301587306</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="1">
         <v>8159.5238095238101</v>
       </c>
-      <c r="U42">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1">
         <v>7861</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="1">
         <v>7861</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="1">
         <v>7861</v>
       </c>
-      <c r="Y42">
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1">
         <v>474714</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="1">
         <v>492847.82129664614</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="1">
         <v>491840.33543909399</v>
       </c>
       <c r="AC42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>4104</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>4059.5954551123727</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>3926.2160894368244</v>
       </c>
-      <c r="I43">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
         <v>2214</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>2198.7388307378101</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>1999.7784018381415</v>
       </c>
-      <c r="M43">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
         <v>3127</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>2896.2938097630276</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <v>3363.7346532187771</v>
       </c>
-      <c r="Q43">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1">
         <v>393</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="1">
         <v>394.63296398891964</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>394.63296398891964</v>
       </c>
-      <c r="U43">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1">
         <v>5</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="1">
         <v>5</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="1">
         <v>5</v>
       </c>
-      <c r="Y43">
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1">
         <v>9843</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>9554.2610596021295</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="1">
         <v>9689.3621084826627</v>
       </c>
       <c r="AC43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>8463</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>13411.694392171588</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>16696.478375487099</v>
       </c>
-      <c r="I44">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
         <v>42407</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>41784.542129702844</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>38897.623824082664</v>
       </c>
-      <c r="M44">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
         <v>19479</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>18107.186646142003</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="1">
         <v>17642.419280354086</v>
       </c>
-      <c r="Q44">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
         <v>3192</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="1">
         <v>2705.916061463191</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="1">
         <v>2440.1804143414115</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1">
         <v>73541</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="1">
         <v>76009.339229479636</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="1">
         <v>75676.701894265265</v>
       </c>
       <c r="AC44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2596</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>2387.7181208053694</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>1779.5033557046982</v>
       </c>
-      <c r="I45">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <v>10420</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>9862.5413478616538</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>9416.2280476063152</v>
       </c>
-      <c r="M45">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
         <v>910</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>736.05516356638873</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="1">
         <v>643.24567030147534</v>
       </c>
-      <c r="Q45">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
         <v>394</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="1">
         <v>394</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="1">
         <v>394</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1">
         <v>14320</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="1">
         <v>13380.314632233412</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="1">
         <v>12232.977073612488</v>
       </c>
       <c r="AC45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>162</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>151.1495327489362</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>161.39477891489361</v>
       </c>
-      <c r="I46">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
         <v>7983</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>7742.4351715612138</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>7888.1900767092038</v>
       </c>
-      <c r="M46">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
         <v>1880</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>1667.5470200777693</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="1">
         <v>1799.7915403539382</v>
       </c>
-      <c r="Q46">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
         <v>544</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1">
         <v>516.79999999999995</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="1">
         <v>516.79999999999995</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1">
         <v>10569</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="1">
         <v>10077.93172438792</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="1">
         <v>10366.176395978035</v>
       </c>
       <c r="AC46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>33918</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>36359.757523328146</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>34402.021871526042</v>
       </c>
-      <c r="I47">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
         <v>19206</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>18534.147944831057</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>19018.43035748279</v>
       </c>
-      <c r="M47">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
         <v>19609</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>23001.055038169918</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <v>23279.402564102562</v>
       </c>
-      <c r="Q47">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
         <v>8532</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>8622.8455297511828</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="1">
         <v>8159.7781213637872</v>
       </c>
-      <c r="U47">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1">
         <v>1</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="1">
         <v>1</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="1">
         <v>1</v>
       </c>
-      <c r="Y47">
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1">
         <v>81266</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="1">
         <v>86518.806036080307</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="1">
         <v>84860.632914475194</v>
       </c>
       <c r="AC47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
         <v>3487</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>3629.0533857945175</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>3760.8160097685504</v>
       </c>
-      <c r="M48">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
         <v>10831</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>11953.002290480996</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="1">
         <v>11134.814863721349</v>
       </c>
-      <c r="Q48">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1">
         <v>150</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="1">
         <v>163.63636363636363</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="1">
         <v>163.63636363636363</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1">
         <v>14468</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="1">
         <v>15745.692039911877</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="1">
         <v>15059.267237126263</v>
       </c>
       <c r="AC48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>37751</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>41415.081854247488</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>44413.834547767241</v>
       </c>
-      <c r="I49">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
         <v>9579</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>9507.019580717495</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>9713.463515400048</v>
       </c>
-      <c r="M49">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
         <v>34504</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <v>35522.347222222204</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="1">
         <v>32826.722222222212</v>
       </c>
-      <c r="Q49">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
         <v>1286</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="1">
         <v>1429.8709950301363</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="1">
         <v>1429.8709950301363</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1">
         <v>83120</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="1">
         <v>87874.319652217338</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="1">
         <v>88383.891280419644</v>
       </c>
       <c r="AC49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>32091</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>32550.587989205171</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>40466.799757215762</v>
       </c>
-      <c r="I50">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
         <v>47695</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>46137.233060217586</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>44420.469508406473</v>
       </c>
-      <c r="M50">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
         <v>52973</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="1">
         <v>44187.240107849459</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="1">
         <v>41788.891153131037</v>
       </c>
-      <c r="Q50">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
         <v>1034</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="1">
         <v>1030.8802308802308</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="1">
         <v>1030.8802308802308</v>
       </c>
-      <c r="U50">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1">
         <v>787</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="1">
         <v>787</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="1">
         <v>787</v>
       </c>
-      <c r="Y50">
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1">
         <v>134580</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="1">
         <v>124692.94138815244</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="1">
         <v>128494.04064963351</v>
       </c>
       <c r="AC50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>1006</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>1071.2789718495328</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>1071.2789718495328</v>
       </c>
-      <c r="I51">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
         <v>3007</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>3203.0452736817801</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>3279.3977504759387</v>
       </c>
-      <c r="M51">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
         <v>23534</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="1">
         <v>25397.917122130606</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="1">
         <v>24744.487380183626</v>
       </c>
-      <c r="Q51">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1">
         <v>935</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="1">
         <v>952.41559953434228</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="1">
         <v>952.41559953434228</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1">
         <v>28482</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="1">
         <v>30624.656967196261</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="1">
         <v>30047.57970204344</v>
       </c>
       <c r="AC51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>25731</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>27498.52222589001</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>27093.723354267862</v>
       </c>
-      <c r="I52">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <v>20374</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>20393.171437714482</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>20379.393362078412</v>
       </c>
-      <c r="M52">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
         <v>7897</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <v>8212.1131656010093</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="1">
         <v>8388.5953138626428</v>
       </c>
-      <c r="Q52">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
         <v>2269</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="1">
         <v>2307.6451011073664</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="1">
         <v>2307.6451011073664</v>
       </c>
-      <c r="U52">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
         <v>1</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="1">
         <v>1</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="1">
         <v>1</v>
       </c>
-      <c r="Y52">
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1">
         <v>56272</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="1">
         <v>58412.451930312869</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="1">
         <v>58170.357131316283</v>
       </c>
       <c r="AC52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>547692</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>567869.48008831125</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>579152.73885458137</v>
       </c>
-      <c r="I53">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1">
         <v>589836</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>589699.91412805801</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>578583.84562901512</v>
       </c>
-      <c r="M53">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
         <v>648920</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="1">
         <v>637598.66191417491</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="1">
         <v>625185.81219331711</v>
       </c>
-      <c r="Q53">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
         <v>50148</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="1">
         <v>51673.047444121068</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="1">
         <v>51444.429786050161</v>
       </c>
-      <c r="U53">
+      <c r="T53" s="1"/>
+      <c r="U53" s="1">
         <v>14104</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="1">
         <v>14104</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="1">
         <v>14104</v>
       </c>
-      <c r="Y53">
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1">
         <v>1850700</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="1">
         <v>1860945.1035746653</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="1">
         <v>1848470.8264629638</v>
       </c>
       <c r="AC53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>1473</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>1517.58771</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>1489.1329404586882</v>
       </c>
-      <c r="I55">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
         <v>67361</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>65352.937123214644</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>68337.801124151127</v>
       </c>
-      <c r="M55">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
         <v>80246</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <v>85196.8529533822</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="1">
         <v>86634.376400608657</v>
       </c>
-      <c r="Q55">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
         <v>6800</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="1">
         <v>7541.818181818182</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="1">
         <v>8036.363636363636</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
+      <c r="T55" s="1"/>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1">
         <v>155880</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="1">
         <v>159609.19596841501</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="1">
         <v>164497.67410158212</v>
       </c>
       <c r="AC55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>7728</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>7929.7263621519269</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>8810.7692273166576</v>
       </c>
-      <c r="I56">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
         <v>8088</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>8522.0365382176769</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>10062.9705674056</v>
       </c>
-      <c r="M56">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
         <v>2753</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <v>2586.4736206918969</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="1">
         <v>1347.2380134020493</v>
       </c>
-      <c r="Q56">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
         <v>699</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="1">
         <v>707.2971395213076</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="1">
         <v>707.2971395213076</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
+      <c r="T56" s="1"/>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1">
         <v>19268</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="1">
         <v>19745.533660582809</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="1">
         <v>20928.274947645612</v>
       </c>
       <c r="AC56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
         <v>17675</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>16606.300815125884</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <v>17063.835045357311</v>
       </c>
-      <c r="M57">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
         <v>7490</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <v>8770.8726341131569</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="1">
         <v>8874.1201047913582</v>
       </c>
-      <c r="Q57">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
         <v>272</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="1">
         <v>306</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="1">
         <v>306</v>
       </c>
-      <c r="U57">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1">
         <v>114</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="1">
         <v>114</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="1">
         <v>114</v>
       </c>
-      <c r="Y57">
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1">
         <v>25551</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="1">
         <v>25797.173449239039</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="1">
         <v>26357.955150148671</v>
       </c>
       <c r="AC57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
         <v>111</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>124.69655712374926</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>128.18834114274466</v>
       </c>
-      <c r="M58">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
         <v>17138</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>18884.522201824817</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <v>22520.537688442211</v>
       </c>
-      <c r="Q58">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
         <v>514</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>543.9153439153439</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="1">
         <v>543.9153439153439</v>
       </c>
-      <c r="U58">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1">
         <v>1470</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="1">
         <v>1470</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="1">
         <v>1470</v>
       </c>
-      <c r="Y58">
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1">
         <v>19233</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="1">
         <v>21023.134102863911</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="1">
         <v>24662.641373500301</v>
       </c>
       <c r="AC58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1">
         <v>79371</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="1">
         <v>79949.555309283227</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>83313.844293376635</v>
       </c>
-      <c r="M59">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
         <v>41541</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <v>43720.883641341548</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="1">
         <v>48715.660506502398</v>
       </c>
-      <c r="Q59">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
         <v>5753</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="1">
         <v>6576.9166430260047</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="1">
         <v>5848.2033096926716</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1">
         <v>126665</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="1">
         <v>130247.35559365079</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="1">
         <v>137877.70810957171</v>
       </c>
       <c r="AC59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>841</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
         <v>10313</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>10932.635686814929</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>11204.807818461895</v>
       </c>
-      <c r="M60">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
         <v>31592</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>32478.86776145914</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="1">
         <v>32695.937476713414</v>
       </c>
-      <c r="Q60">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
         <v>2448</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="1">
         <v>2312</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="1">
         <v>2312</v>
       </c>
-      <c r="U60">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1">
         <v>508</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="1">
         <v>508</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="1">
         <v>508</v>
       </c>
-      <c r="Y60">
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1">
         <v>45702</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="1">
         <v>46231.503448274067</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="1">
         <v>46720.745295175308</v>
       </c>
       <c r="AC60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>249</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
         <v>53608</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>55335.857184626184</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>58448.57282393668</v>
       </c>
-      <c r="M61">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
         <v>25045</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <v>24224.228474330564</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="1">
         <v>25052.94135950589</v>
       </c>
-      <c r="Q61">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
         <v>4573</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="1">
         <v>4790.5323494531558</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="1">
         <v>4790.5323494531558</v>
       </c>
-      <c r="U61">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1">
         <v>4708</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="1">
         <v>4708</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="1">
         <v>4708</v>
       </c>
-      <c r="Y61">
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1">
         <v>88183</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="1">
         <v>89058.618008409918</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="1">
         <v>93000.046532895736</v>
       </c>
       <c r="AC61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>10291</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>9447.3140721519267</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>10299.902167775346</v>
       </c>
-      <c r="I62">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
         <v>236527</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>236824.01921440632</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>248560.02001383199</v>
       </c>
-      <c r="M62">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
         <v>205805</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="1">
         <v>215862.70128714334</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="1">
         <v>225840.81154996599</v>
       </c>
-      <c r="Q62">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
         <v>21059</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="1">
         <v>22778.479657733995</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="1">
         <v>22544.311778946114</v>
       </c>
-      <c r="U62">
+      <c r="T62" s="1"/>
+      <c r="U62" s="1">
         <v>6800</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="1">
         <v>6800</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="1">
         <v>6800</v>
       </c>
-      <c r="Y62">
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1">
         <v>480482</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="1">
         <v>491712.51423143555</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" s="1">
         <v>514045.04551051947</v>
       </c>
       <c r="AC62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>332</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64">
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
         <v>13429</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="1">
         <v>14073.51958206943</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="1">
         <v>15080.128816986853</v>
       </c>
-      <c r="M64">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
         <v>14568</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="1">
         <v>15413.380253857264</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="1">
         <v>17118.534924374857</v>
       </c>
-      <c r="Q64">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
         <v>2720</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="1">
         <v>2848.1675392670159</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="1">
         <v>2848.1675392670159</v>
       </c>
-      <c r="U64">
+      <c r="T64" s="1"/>
+      <c r="U64" s="1">
         <v>2623</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="1">
         <v>2623</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="1">
         <v>2623</v>
       </c>
-      <c r="Y64">
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1">
         <v>33672</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="1">
         <v>34958.067375193707</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="1">
         <v>37669.831280628729</v>
       </c>
       <c r="AC64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>1134</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>1154.13984</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>1179.7040371153846</v>
       </c>
-      <c r="I65">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1">
         <v>24320</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>22577.443393364407</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>23633.84318376127</v>
       </c>
-      <c r="M65">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
         <v>23860</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>26245.471070716027</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>27826.969629793839</v>
       </c>
-      <c r="Q65">
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1">
         <v>6528</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="1">
         <v>6009.0376569037653</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="1">
         <v>6009.0376569037653</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
+      <c r="T65" s="1"/>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1">
         <v>55842</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="1">
         <v>55986.091960984195</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="1">
         <v>58649.554507574256</v>
       </c>
       <c r="AC65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>103909</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>102863.14063702409</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>103664.08358151438</v>
       </c>
-      <c r="I66">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
         <v>17958</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>17965.719268931221</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>18478.417176080351</v>
       </c>
-      <c r="M66">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1">
         <v>1842</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="1">
         <v>1853.2844809033613</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="1">
         <v>1772.1671347421807</v>
       </c>
-      <c r="Q66">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1">
         <v>1768</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="1">
         <v>1827.2044158233671</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="1">
         <v>1827.2044158233668</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
+      <c r="T66" s="1"/>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1">
         <v>125477</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="1">
         <v>124509.34880268203</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="1">
         <v>125741.87230816028</v>
       </c>
       <c r="AC66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
         <v>57</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>7756</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>7944.4067873785325</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>8050.0729202765242</v>
       </c>
-      <c r="I67">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1">
         <v>62066</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>59423.940401595995</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>63049.277710576469</v>
       </c>
-      <c r="M67">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
         <v>13872</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>13924.906891175675</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <v>15189.025284078905</v>
       </c>
-      <c r="Q67">
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1">
         <v>7889</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="1">
         <v>8671.3615675958354</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>8671.3615675958354</v>
       </c>
-      <c r="U67">
+      <c r="T67" s="1"/>
+      <c r="U67" s="1">
         <v>13921</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="1">
         <v>13921</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="1">
         <v>13921</v>
       </c>
-      <c r="Y67">
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1">
         <v>105504</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="1">
         <v>103885.61564774605</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="1">
         <v>108880.73748252774</v>
       </c>
       <c r="AC67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
         <v>58</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>113131</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>111961.68726440263</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>112893.86053890629</v>
       </c>
-      <c r="I68">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1">
         <v>117773</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>114040.62264596106</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>120241.66688740495</v>
       </c>
-      <c r="M68">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
         <v>54142</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
         <v>57437.04269665233</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="1">
         <v>61906.696972989783</v>
       </c>
-      <c r="Q68">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1">
         <v>18905</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="1">
         <v>19355.771179589981</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="1">
         <v>19355.771179589981</v>
       </c>
-      <c r="U68">
+      <c r="T68" s="1"/>
+      <c r="U68" s="1">
         <v>16544</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="1">
         <v>16544</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="1">
         <v>16544</v>
       </c>
-      <c r="Y68">
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1">
         <v>320495</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="1">
         <v>319339.12378660601</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="1">
         <v>330941.99557889096</v>
       </c>
       <c r="AC68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
         <v>59</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>54348</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>54484.142284569156</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>51951.895791583156</v>
       </c>
-      <c r="I70">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1">
         <v>29495</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="1">
         <v>31077.441325311211</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>31458.450815548022</v>
       </c>
-      <c r="M70">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
         <v>16546</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="1">
         <v>16480.578241577812</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="1">
         <v>16372.058730986233</v>
       </c>
-      <c r="Q70">
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1">
         <v>1224</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="1">
         <v>1237.5999999999999</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="1">
         <v>1237.5999999999999</v>
       </c>
-      <c r="U70">
+      <c r="T70" s="1"/>
+      <c r="U70" s="1">
         <v>127</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="1">
         <v>127</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="1">
         <v>127</v>
       </c>
-      <c r="Y70">
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1">
         <v>101740</v>
       </c>
-      <c r="Z70">
+      <c r="Z70" s="1">
         <v>103406.8</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" s="1">
         <v>101147.00533811742</v>
       </c>
       <c r="AC70" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>444</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>472.89107999999999</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>501.5057192369427</v>
       </c>
-      <c r="I71">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
         <v>3887</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="1">
         <v>4928.1887619954414</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>5253.9296276652194</v>
       </c>
-      <c r="M71">
+      <c r="L71" s="1"/>
+      <c r="M71" s="1">
         <v>10302</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
         <v>10388.460597439545</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="1">
         <v>11271.824125177809</v>
       </c>
-      <c r="Q71">
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1">
         <v>680</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="1">
         <v>680</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="1">
         <v>680</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
+      <c r="T71" s="1"/>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1">
         <v>15313</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="1">
         <v>16469.540439434986</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="1">
         <v>17707.259472079972</v>
       </c>
       <c r="AC71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>1638200</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>1791921.7171074566</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>1906432.1736260224</v>
       </c>
-      <c r="I72">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1">
         <v>312293</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1">
         <v>327721.57975932566</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>345050.33945012803</v>
       </c>
-      <c r="M72">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
         <v>53683</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="1">
         <v>65524.373159031617</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="1">
         <v>72207.859221252846</v>
       </c>
-      <c r="Q72">
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1">
         <v>255680</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="1">
         <v>294874.90109890111</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="1">
         <v>302039.5604395605</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
+      <c r="T72" s="1"/>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1">
         <v>2259856</v>
       </c>
-      <c r="Z72">
+      <c r="Z72" s="1">
         <v>2480042.5711247153</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" s="1">
         <v>2625729.932736964</v>
       </c>
       <c r="AC72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>5393</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>6544.5831877786568</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>6451.5289469047721</v>
       </c>
-      <c r="I73">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1">
         <v>2599</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>2624.1841602187715</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>2598.9299260428397</v>
       </c>
-      <c r="M73">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
         <v>1768</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="1">
         <v>1408.0492787037949</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="1">
         <v>1296.5795755393499</v>
       </c>
-      <c r="Q73">
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1">
         <v>136</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="1">
         <v>136</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="1">
         <v>136</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
+      <c r="T73" s="1"/>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1">
         <v>9896</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="1">
         <v>10712.816626701224</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" s="1">
         <v>10483.038448486963</v>
       </c>
       <c r="AC73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
         <v>63</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>365005</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>376021.4263618493</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>414468.22307260463</v>
       </c>
-      <c r="I74">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1">
         <v>126887</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>133116.27051759762</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>140119.9054173617</v>
       </c>
-      <c r="M74">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1">
         <v>26850</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="1">
         <v>26515.94941872323</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="1">
         <v>23674.649225077435</v>
       </c>
-      <c r="Q74">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1">
         <v>28560</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="1">
         <v>31156.363636363636</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="1">
         <v>32454.545454545456</v>
       </c>
-      <c r="U74">
+      <c r="T74" s="1"/>
+      <c r="U74" s="1">
         <v>509</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="1">
         <v>509</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="1">
         <v>509</v>
       </c>
-      <c r="Y74">
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1">
         <v>547811</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" s="1">
         <v>567319.00993453374</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" s="1">
         <v>611226.32316958916</v>
       </c>
       <c r="AC74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
         <v>64</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>35348</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>41973.270364179101</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>43261.73134328358</v>
       </c>
-      <c r="I75">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1">
         <v>57155</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>62375.945017928621</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>62793.365747928015</v>
       </c>
-      <c r="M75">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1">
         <v>20123</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="1">
         <v>18614.31849597496</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="1">
         <v>17886.965708014206</v>
       </c>
-      <c r="Q75">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1">
         <v>2992</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="1">
         <v>3205.7142857142858</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="1">
         <v>3312.5714285714289</v>
       </c>
-      <c r="U75">
+      <c r="T75" s="1"/>
+      <c r="U75" s="1">
         <v>2733</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="1">
         <v>2733</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="1">
         <v>2733</v>
       </c>
-      <c r="Y75">
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1">
         <v>118351</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="1">
         <v>128902.24816379698</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="1">
         <v>129987.63422779723</v>
       </c>
       <c r="AC75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
         <v>65</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>118889</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>113141.84096364425</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>119527.87235591628</v>
       </c>
-      <c r="I76">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
         <v>139622</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>140035.2526261778</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>149291.37892896746</v>
       </c>
-      <c r="M76">
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
         <v>53738</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="1">
         <v>59991.705472991562</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="1">
         <v>66378.302357048568</v>
       </c>
-      <c r="Q76">
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1">
         <v>7008</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="1">
         <v>6976.0378837868257</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="1">
         <v>7072.4682684469981</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
+      <c r="T76" s="1"/>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1">
         <v>319257</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="1">
         <v>320144.83694660047</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="1">
         <v>342270.02191037923</v>
       </c>
       <c r="AC76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29">
       <c r="A77" t="s">
         <v>66</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>16771</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>16765.325302835488</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>16270.832191919875</v>
       </c>
-      <c r="I77">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
         <v>19290</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="1">
         <v>19766.650283289899</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>20241.780572580003</v>
       </c>
-      <c r="M77">
+      <c r="L77" s="1"/>
+      <c r="M77" s="1">
         <v>17535</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="1">
         <v>16272.162407700172</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="1">
         <v>16949.407672264901</v>
       </c>
-      <c r="Q77">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1">
         <v>2652</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="1">
         <v>2616.8404007691529</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="1">
         <v>2616.8404007691529</v>
       </c>
-      <c r="U77">
+      <c r="T77" s="1"/>
+      <c r="U77" s="1">
         <v>2874</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="1">
         <v>2874</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="1">
         <v>2874</v>
       </c>
-      <c r="Y77">
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1">
         <v>59122</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="1">
         <v>58294.978394594706</v>
       </c>
-      <c r="AA77">
+      <c r="AA77" s="1">
         <v>58952.860837533932</v>
       </c>
       <c r="AC77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29">
       <c r="A78" t="s">
         <v>67</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>1416</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>1445.5778394988449</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>1757.588569072228</v>
       </c>
-      <c r="I78">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1">
         <v>4596</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1">
         <v>4539.3447482281745</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>4549.0159068327903</v>
       </c>
-      <c r="M78">
+      <c r="L78" s="1"/>
+      <c r="M78" s="1">
         <v>2329</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="1">
         <v>2103.7950881162924</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="1">
         <v>2295.435175953553</v>
       </c>
-      <c r="Q78">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1">
         <v>163</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="1">
         <v>149.41666666666666</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="1">
         <v>149.41666666666666</v>
       </c>
-      <c r="U78">
+      <c r="T78" s="1"/>
+      <c r="U78" s="1">
         <v>101</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="1">
         <v>101</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="1">
         <v>101</v>
       </c>
-      <c r="Y78">
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1">
         <v>8605</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="1">
         <v>8339.1343425099785</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="1">
         <v>8852.4563185252373</v>
       </c>
       <c r="AC78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29">
       <c r="A79" t="s">
         <v>68</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>4756</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>4577.7719212701641</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>4508.8896722648415</v>
       </c>
-      <c r="I79">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
         <v>16989</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="1">
         <v>17217.525982179839</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="1">
         <v>16534.629869873239</v>
       </c>
-      <c r="M79">
+      <c r="L79" s="1"/>
+      <c r="M79" s="1">
         <v>18188</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="1">
         <v>17969.743999999999</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="1">
         <v>19027.869795609386</v>
       </c>
-      <c r="Q79">
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1">
         <v>4080</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="1">
         <v>3980.4878048780488</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="1">
         <v>3980.4878048780488</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
+      <c r="T79" s="1"/>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0</v>
+      </c>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1">
         <v>44013</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="1">
         <v>43745.529708328053</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" s="1">
         <v>44051.877142625519</v>
       </c>
       <c r="AC79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29">
       <c r="A80" t="s">
         <v>69</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>6803</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>7277.5695534806528</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>8263.6895377293549</v>
       </c>
-      <c r="I80">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1">
         <v>11356</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="1">
         <v>11050.71688571405</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="1">
         <v>11161.945329444712</v>
       </c>
-      <c r="M80">
+      <c r="L80" s="1"/>
+      <c r="M80" s="1">
         <v>1929</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
         <v>2108.3854130253471</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="1">
         <v>2023.3804899621268</v>
       </c>
-      <c r="Q80">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1">
         <v>2162</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="1">
         <v>2175.5974842767296</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="1">
         <v>2175.5974842767296</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
+      <c r="T80" s="1"/>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
+      </c>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1">
         <v>22250</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="1">
         <v>22612.269336496774</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" s="1">
         <v>23624.612841412923</v>
       </c>
       <c r="AC80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29">
       <c r="A81" t="s">
         <v>70</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>7</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="I81">
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1">
         <v>-817</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1">
         <v>-853.59594721127564</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="1">
         <v>-859.37793458431963</v>
       </c>
-      <c r="M81">
+      <c r="L81" s="1"/>
+      <c r="M81" s="1">
         <v>4497</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="1">
         <v>4693.3846479890135</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="1">
         <v>4447.0191011631123</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1">
         <v>3687</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="1">
         <v>3839.7887007777381</v>
       </c>
-      <c r="AA81">
+      <c r="AA81" s="1">
         <v>3587.6411665787928</v>
       </c>
       <c r="AC81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
         <v>71</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>76263</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>84044.446611152103</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>82238.44795709</v>
       </c>
-      <c r="I82">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1">
         <v>47701</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="1">
         <v>48079.426299816252</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>49431.626913763663</v>
       </c>
-      <c r="M82">
+      <c r="L82" s="1"/>
+      <c r="M82" s="1">
         <v>24389</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="1">
         <v>26246.755859375</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="1">
         <v>28371.039574032733</v>
       </c>
-      <c r="Q82">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1">
         <v>6424</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="1">
         <v>6543.2138338253899</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="1">
         <v>6638.0430198228596</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
+      <c r="T82" s="1"/>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1">
         <v>154777</v>
       </c>
-      <c r="Z82">
+      <c r="Z82" s="1">
         <v>164913.84260416875</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" s="1">
         <v>166679.15746470925</v>
       </c>
       <c r="AC82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
         <v>72</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>42081</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>43324.581803432025</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>42918.976247634426</v>
       </c>
-      <c r="I83">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
         <v>18652</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="1">
         <v>17254.609755278128</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="1">
         <v>16996.164545246033</v>
       </c>
-      <c r="M83">
+      <c r="L83" s="1"/>
+      <c r="M83" s="1">
         <v>8094</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="1">
         <v>8909.7978781670372</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="1">
         <v>9351.7385642128465</v>
       </c>
-      <c r="Q83">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1">
         <v>2217</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="1">
         <v>2291.9381633028647</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="1">
         <v>2291.9381633028647</v>
       </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
+      <c r="T83" s="1"/>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1">
         <v>71044</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="1">
         <v>71780.927600180061</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" s="1">
         <v>71558.817520396173</v>
       </c>
       <c r="AC83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>15320</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>15983.613516083642</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>15980.63878422615</v>
       </c>
-      <c r="I84">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1">
         <v>38139</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1">
         <v>40888.483820281079</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="1">
         <v>42467.789670371145</v>
       </c>
-      <c r="M84">
+      <c r="L84" s="1"/>
+      <c r="M84" s="1">
         <v>22102</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="1">
         <v>22836.369844179651</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="1">
         <v>25108.080690079478</v>
       </c>
-      <c r="Q84">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1">
         <v>4963</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="1">
         <v>4987.8857135028493</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="1">
         <v>4487.5876808417361</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
+      <c r="T84" s="1"/>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1">
         <v>80524</v>
       </c>
-      <c r="Z84">
+      <c r="Z84" s="1">
         <v>84696.352894047217</v>
       </c>
-      <c r="AA84">
+      <c r="AA84" s="1">
         <v>88044.0968255185</v>
       </c>
       <c r="AC84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>16181</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>17517.744395614154</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>17423.277685888042</v>
       </c>
-      <c r="I85">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1">
         <v>13061</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="1">
         <v>14217.757435558491</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>14351.993079291475</v>
       </c>
-      <c r="M85">
+      <c r="L85" s="1"/>
+      <c r="M85" s="1">
         <v>4926</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="1">
         <v>4442.9355456285903</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="1">
         <v>4926.5239310784946</v>
       </c>
-      <c r="Q85">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1">
         <v>6800</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="1">
         <v>7190.6504866550749</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="1">
         <v>7922.7087777160368</v>
       </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
+      <c r="T85" s="1"/>
+      <c r="U85" s="1">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1">
         <v>40968</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="1">
         <v>43369.087863456312</v>
       </c>
-      <c r="AA85">
+      <c r="AA85" s="1">
         <v>44624.503473974044</v>
       </c>
       <c r="AC85" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>22490</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>23194.655119480252</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>23620.628742468904</v>
       </c>
-      <c r="I86">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1">
         <v>12429</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1">
         <v>13374.870932046091</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>13588.596642011351</v>
       </c>
-      <c r="M86">
+      <c r="L86" s="1"/>
+      <c r="M86" s="1">
         <v>3031</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="1">
         <v>3312.4081086393412</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="1">
         <v>3356.687593584395</v>
       </c>
-      <c r="Q86">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1">
         <v>1554</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="1">
         <v>1578.5076239435393</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="1">
         <v>1578.5076239435393</v>
       </c>
-      <c r="U86">
+      <c r="T86" s="1"/>
+      <c r="U86" s="1">
         <v>132</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="1">
         <v>132</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="1">
         <v>132</v>
       </c>
-      <c r="Y86">
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1">
         <v>39636</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="1">
         <v>41592.441784109222</v>
       </c>
-      <c r="AA86">
+      <c r="AA86" s="1">
         <v>42276.420602008184</v>
       </c>
       <c r="AC86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>2419715</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>2598691.1574123246</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>2755577.9002438453</v>
       </c>
-      <c r="I87">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1">
         <v>853334</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1">
         <v>887414.65236373583</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>925030.46450847143</v>
       </c>
-      <c r="M87">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1">
         <v>290030</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="1">
         <v>307819.17345726298</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="1">
         <v>324945.42153103749</v>
       </c>
-      <c r="Q87">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1">
         <v>327295</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="1">
         <v>369781.2</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="1">
         <v>378773.87321334198</v>
       </c>
-      <c r="U87">
+      <c r="T87" s="1"/>
+      <c r="U87" s="1">
         <v>6476</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="1">
         <v>6476</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="1">
         <v>6476</v>
       </c>
-      <c r="Y87">
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1">
         <v>3896850</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="1">
         <v>4170182</v>
       </c>
-      <c r="AA87">
+      <c r="AA87" s="1">
         <v>4390803.6594966967</v>
       </c>
       <c r="AC87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>3681481</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>3850000.1024908302</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>3961677.104564284</v>
       </c>
-      <c r="I88">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1">
         <v>2727712</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="1">
         <v>2761479.1246568686</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="1">
         <v>2800439.2230945653</v>
       </c>
-      <c r="M88">
+      <c r="L88" s="1"/>
+      <c r="M88" s="1">
         <v>1712512</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="1">
         <v>1743827.5978847614</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="1">
         <v>1787113.1965990034</v>
       </c>
-      <c r="Q88">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1">
         <v>449826</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="1">
         <v>497309.3</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="1">
         <v>507452.98273370659</v>
       </c>
-      <c r="U88">
+      <c r="T88" s="1"/>
+      <c r="U88" s="1">
         <v>58858</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="1">
         <v>58858</v>
       </c>
-      <c r="W88">
+      <c r="W88" s="1">
         <v>58858</v>
       </c>
-      <c r="Y88">
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1">
         <v>8630389</v>
       </c>
-      <c r="Z88">
+      <c r="Z88" s="1">
         <v>8911474</v>
       </c>
-      <c r="AA88">
+      <c r="AA88" s="1">
         <v>9115540.5069915578</v>
       </c>
       <c r="AC88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29">
       <c r="A89" t="s">
         <v>77</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>3842000</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>4024771.4315462071</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>4137126.1534046601</v>
       </c>
-      <c r="I89">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1">
         <v>3114000</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="1">
         <v>3147300.4164038268</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="1">
         <v>3185198.9153160388</v>
       </c>
-      <c r="M89">
+      <c r="L89" s="1"/>
+      <c r="M89" s="1">
         <v>1702000</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="1">
         <v>1732075.941044549</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="1">
         <v>1776001.9963182665</v>
       </c>
-      <c r="Q89">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1">
         <v>450000</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="1">
         <v>496788.99082568806</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="1">
         <v>509174.31192660553</v>
       </c>
-      <c r="U89">
+      <c r="T89" s="1"/>
+      <c r="U89" s="1">
         <v>59000</v>
       </c>
-      <c r="V89">
+      <c r="V89" s="1">
         <v>59000</v>
       </c>
-      <c r="W89">
+      <c r="W89" s="1">
         <v>59000</v>
       </c>
-      <c r="Y89">
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1">
         <v>9167000</v>
       </c>
-      <c r="Z89">
+      <c r="Z89" s="1">
         <v>9459936.7798202708</v>
       </c>
-      <c r="AA89">
+      <c r="AA89" s="1">
         <v>9666501.3769655693</v>
       </c>
       <c r="AC89" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -5706,28 +6255,33 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29">
       <c r="B93" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29">
       <c r="B94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29">
       <c r="B95" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5737,9 +6291,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5749,8 +6308,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/3-climate-change/data/CO2_emissions_2012.xlsx
+++ b/3-climate-change/data/CO2_emissions_2012.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ok" sheetId="4" r:id="rId2"/>
+    <sheet name="ok (2)" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
   <si>
     <t>US</t>
   </si>
@@ -307,6 +307,12 @@
   <si>
     <t>error in 2011 cement data for Australia corrected by GM on 19 November, 2013</t>
   </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
 </sst>
 </file>
 
@@ -314,9 +320,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +338,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,17 +376,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -667,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="X1" sqref="A1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6287,13 +6325,4042 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="23" width="9.83203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>530658</v>
+      </c>
+      <c r="F2" s="1">
+        <v>501862.93520875607</v>
+      </c>
+      <c r="G2" s="1">
+        <v>443382.30187092227</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>587919</v>
+      </c>
+      <c r="J2" s="1">
+        <v>580704.86625308613</v>
+      </c>
+      <c r="K2" s="1">
+        <v>568799.01226619538</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>351457</v>
+      </c>
+      <c r="N2" s="1">
+        <v>355801.68247741699</v>
+      </c>
+      <c r="O2" s="1">
+        <v>372110.27392753854</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
+        <v>9136</v>
+      </c>
+      <c r="R2" s="1">
+        <v>9331.3577572096074</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10060.176780452963</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>2439</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2439</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2439</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1">
+        <v>1396790.7648451091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23734</v>
+      </c>
+      <c r="F3" s="1">
+        <v>21166.354372720914</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20765.845914453355</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>60786</v>
+      </c>
+      <c r="J3" s="1">
+        <v>63010.546966728834</v>
+      </c>
+      <c r="K3" s="1">
+        <v>62592.431131551595</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>49101</v>
+      </c>
+      <c r="N3" s="1">
+        <v>52099.851019304551</v>
+      </c>
+      <c r="O3" s="1">
+        <v>52025.046349525866</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>1691</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1632.506717078272</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1632.506717078272</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>804</v>
+      </c>
+      <c r="V3" s="1">
+        <v>804</v>
+      </c>
+      <c r="W3" s="1">
+        <v>804</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1">
+        <v>137819.83011260908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9233</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9609.6528517452916</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9567.6269515737204</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>71656</v>
+      </c>
+      <c r="J4" s="1">
+        <v>73065.601496465577</v>
+      </c>
+      <c r="K4" s="1">
+        <v>74947.16053846576</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>33277</v>
+      </c>
+      <c r="N4" s="1">
+        <v>35176.212631758222</v>
+      </c>
+      <c r="O4" s="1">
+        <v>38398.014038379188</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>4692</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4813.9813929223546</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4895.5742978871403</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
+        <v>2134</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2134</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2134</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1">
+        <v>129942.37582630581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>958.05737704918045</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1003.0860737704918</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>23875</v>
+      </c>
+      <c r="J5" s="1">
+        <v>25256.242184611139</v>
+      </c>
+      <c r="K5" s="1">
+        <v>25901.664279908924</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>22991</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24262.653506814509</v>
+      </c>
+      <c r="O5" s="1">
+        <v>25130.655370293367</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>1360</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1512.5319006044324</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1512.5319006044322</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1">
+        <v>53547.937624577215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15965</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16899.307825563006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16199.676481584698</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>74689</v>
+      </c>
+      <c r="J6" s="1">
+        <v>77139.783301736374</v>
+      </c>
+      <c r="K6" s="1">
+        <v>79322.463109983539</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>14372</v>
+      </c>
+      <c r="N6" s="1">
+        <v>14323.364893875585</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15638.332741170256</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <v>8040</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8716.5959606211309</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9519.9431645184213</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>1402</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1402</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1402</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
+        <v>122082.41549725691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4513</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5729.3001879468329</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7184.3066218198237</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>11861</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13502.33342592091</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13801.498965269277</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>2791</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2838.0827308204025</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3180.0854657870323</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <v>526</v>
+      </c>
+      <c r="R7" s="1">
+        <v>598.69697752518732</v>
+      </c>
+      <c r="S7" s="1">
+        <v>598.69697752518732</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <v>14</v>
+      </c>
+      <c r="V7" s="1">
+        <v>14</v>
+      </c>
+      <c r="W7" s="1">
+        <v>14</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
+        <v>24778.588030401319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3308</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3554.7651596705768</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3304.8917430995766</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>10605</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11211.96979522836</v>
+      </c>
+      <c r="K8" s="1">
+        <v>11350.318923401524</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>5140</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5007.1593098755911</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5565.9098416671677</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
+        <v>1290</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1465.2540050590219</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1465.2540050590219</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>295</v>
+      </c>
+      <c r="V8" s="1">
+        <v>295</v>
+      </c>
+      <c r="W8" s="1">
+        <v>295</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
+        <v>21981.374513227292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>7657</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7852.3447755488287</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8160.659854368173</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>304</v>
+      </c>
+      <c r="N9" s="1">
+        <v>268.63330726347846</v>
+      </c>
+      <c r="O9" s="1">
+        <v>352.45858767821602</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
+        <v>680</v>
+      </c>
+      <c r="R9" s="1">
+        <v>741.81818181818187</v>
+      </c>
+      <c r="S9" s="1">
+        <v>741.81818181818176</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
+        <v>259</v>
+      </c>
+      <c r="V9" s="1">
+        <v>259</v>
+      </c>
+      <c r="W9" s="1">
+        <v>259</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1">
+        <v>9513.9366238645707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>787</v>
+      </c>
+      <c r="F10" s="1">
+        <v>765.62657602506056</v>
+      </c>
+      <c r="G10" s="1">
+        <v>813.69387965288252</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>6519</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7068.0320144679699</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7312.1540991176016</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>3433</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3892.5165565186358</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4749.0864274548976</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>934</v>
+      </c>
+      <c r="R10" s="1">
+        <v>901.07193901858022</v>
+      </c>
+      <c r="S10" s="1">
+        <v>901.07193901858022</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
+        <v>4029</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4029</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4029</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1">
+        <v>17805.006345243961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1419</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1205.5265514769874</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1211.4654768454477</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>12293</v>
+      </c>
+      <c r="N11" s="1">
+        <v>12246.649980040565</v>
+      </c>
+      <c r="O11" s="1">
+        <v>11515.163797374211</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
+        <v>109</v>
+      </c>
+      <c r="R11" s="1">
+        <v>109</v>
+      </c>
+      <c r="S11" s="1">
+        <v>109</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
+        <v>12835.629274219658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>206</v>
+      </c>
+      <c r="F12" s="1">
+        <v>214.60255999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>226.49368785125628</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>34048</v>
+      </c>
+      <c r="J12" s="1">
+        <v>33887.513475350446</v>
+      </c>
+      <c r="K12" s="1">
+        <v>34846.401249632516</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>15760</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15833.104807246575</v>
+      </c>
+      <c r="O12" s="1">
+        <v>16579.777943905861</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>1496</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1439.9</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1439.9</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
+        <v>3507</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3507</v>
+      </c>
+      <c r="W12" s="1">
+        <v>3507</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
+        <v>56599.572881389635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3540</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3593.0023640661943</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2745.3600147517732</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>8993</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8436.4959710439762</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8361.3321199683851</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>5131</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4821.3648029744254</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4602.9450665527984</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
+        <v>579</v>
+      </c>
+      <c r="R13" s="1">
+        <v>602.5465444287729</v>
+      </c>
+      <c r="S13" s="1">
+        <v>602.5465444287729</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
+        <v>16312.18374570173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>2322</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2877.9409724367038</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3041.3676538582768</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>4910</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5377.3486554591136</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5592.4426016774833</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>174</v>
+      </c>
+      <c r="R14" s="1">
+        <v>197.26348709929633</v>
+      </c>
+      <c r="S14" s="1">
+        <v>197.26348709929633</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
+        <v>5066</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5066</v>
+      </c>
+      <c r="W14" s="1">
+        <v>5066</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
+        <v>13897.073742635057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>521</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>4495</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5521.9543971873818</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5599.9240600165667</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>11336</v>
+      </c>
+      <c r="N15" s="1">
+        <v>10522.605701693959</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10668.319331588844</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>616</v>
+      </c>
+      <c r="R15" s="1">
+        <v>638.97594350033103</v>
+      </c>
+      <c r="S15" s="1">
+        <v>638.97594350033103</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
+        <v>16907.219335105743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3253</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3237.2183141297755</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2938.3526379624013</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>14678</v>
+      </c>
+      <c r="J16" s="1">
+        <v>14147.475162051562</v>
+      </c>
+      <c r="K16" s="1">
+        <v>13413.958843106875</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>10593</v>
+      </c>
+      <c r="N16" s="1">
+        <v>9333.5448653490639</v>
+      </c>
+      <c r="O16" s="1">
+        <v>9515.2149845249423</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>1186</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1183.0084842925935</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1183.0084842925935</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1">
+        <v>27050.534949886813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7298</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8652.058374889999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7514.5700167808745</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>3042</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2960.0159137577002</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2972.2573446093802</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>1437</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1645.2010552806109</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1533.2292990055223</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <v>408</v>
+      </c>
+      <c r="R17" s="1">
+        <v>394.30315361139367</v>
+      </c>
+      <c r="S17" s="1">
+        <v>394.30315361139367</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1">
+        <v>12414.359814007172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19805</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19634.812713451582</v>
+      </c>
+      <c r="G18" s="1">
+        <v>18147.719245195807</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>5479</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5413.996140760376</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5441.6969878747923</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>4735</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4292.6244612068967</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4177.8211206896558</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
+        <v>455</v>
+      </c>
+      <c r="R18" s="1">
+        <v>520.97159940209269</v>
+      </c>
+      <c r="S18" s="1">
+        <v>520.97159940209269</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1">
+        <v>28288.208953162346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4172</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3524.2852726508445</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2706.4319760515878</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>5353</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5141.5469750889679</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4829.1298932384343</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>2763</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2314.1617656903873</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2159.2711207042553</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
+        <v>272</v>
+      </c>
+      <c r="R19" s="1">
+        <v>244.8</v>
+      </c>
+      <c r="S19" s="1">
+        <v>244.8</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
+        <v>68</v>
+      </c>
+      <c r="V19" s="1">
+        <v>68</v>
+      </c>
+      <c r="W19" s="1">
+        <v>68</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1">
+        <v>10007.632989994278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7345</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5787.641662796098</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4924.9879650105204</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>6980</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6505.7223395552328</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6118.4899950985855</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>2397</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2091.6079061481055</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1868.8848768025862</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
+        <v>143</v>
+      </c>
+      <c r="R20" s="1">
+        <v>143</v>
+      </c>
+      <c r="S20" s="1">
+        <v>143</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
+        <v>13055.362836911692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12461</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10471.707338716835</v>
+      </c>
+      <c r="G21" s="1">
+        <v>12612.46736346635</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>57001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>56484.681723425521</v>
+      </c>
+      <c r="K21" s="1">
+        <v>54617.204304199819</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>26569</v>
+      </c>
+      <c r="N21" s="1">
+        <v>22887.6836738948</v>
+      </c>
+      <c r="O21" s="1">
+        <v>23795.44311176446</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>2489</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2687.4506611845759</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2687.4506611845759</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
+        <v>93712.565440615203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>81385</v>
+      </c>
+      <c r="F22" s="1">
+        <v>80750.765274314152</v>
+      </c>
+      <c r="G22" s="1">
+        <v>84124.894014962527</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>71963</v>
+      </c>
+      <c r="J22" s="1">
+        <v>69836.884239719817</v>
+      </c>
+      <c r="K22" s="1">
+        <v>69556.229475235057</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>45848</v>
+      </c>
+      <c r="N22" s="1">
+        <v>41013.438674737197</v>
+      </c>
+      <c r="O22" s="1">
+        <v>41407.798661994289</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
+        <v>4066</v>
+      </c>
+      <c r="R22" s="1">
+        <v>4558.7043289319736</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4621.2268092929962</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
+        <v>6</v>
+      </c>
+      <c r="V22" s="1">
+        <v>6</v>
+      </c>
+      <c r="W22" s="1">
+        <v>6</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
+        <v>199716.14896148487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8457</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8597.4683766887119</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8578.1157098795975</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>11130</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10462.020650043427</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9489.2027345630158</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2510.1999452204877</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2318.2141878937282</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
+        <v>2040</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1904</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1904</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
+        <v>22289.532632336344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2912</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2970.0824881676804</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2921.3505647866882</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>4317</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4147.5579380413701</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3838.5249347454742</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>6131</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5842.6954547367823</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5480.3463515510739</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <v>435</v>
+      </c>
+      <c r="R24" s="1">
+        <v>435</v>
+      </c>
+      <c r="S24" s="1">
+        <v>435</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
+        <v>12675.221851083235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2206</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2248.6967741935482</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2636.5258064516129</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>5415</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4746.3590582079796</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4393.863533474324</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>2933</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2580.2246766537633</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2505.3034446292681</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>354</v>
+      </c>
+      <c r="R25" s="1">
+        <v>354</v>
+      </c>
+      <c r="S25" s="1">
+        <v>354</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
+        <v>9889.6927845552054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14655</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16512.51714725644</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16613.916974313637</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
+        <v>48702</v>
+      </c>
+      <c r="J26" s="1">
+        <v>46984.592751891578</v>
+      </c>
+      <c r="K26" s="1">
+        <v>42783.415646451896</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>42507</v>
+      </c>
+      <c r="N26" s="1">
+        <v>39868.91357057642</v>
+      </c>
+      <c r="O26" s="1">
+        <v>38379.803424880403</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
+        <v>4937</v>
+      </c>
+      <c r="R26" s="1">
+        <v>4752.1925133689838</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4591.4903510811437</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
+        <v>102368.62639672708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <v>35803</v>
+      </c>
+      <c r="F27" s="1">
+        <v>38527.452686482538</v>
+      </c>
+      <c r="G27" s="1">
+        <v>39622.105168691734</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>12795</v>
+      </c>
+      <c r="J27" s="1">
+        <v>15988.557177606399</v>
+      </c>
+      <c r="K27" s="1">
+        <v>17660.754985782289</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
+        <v>18321</v>
+      </c>
+      <c r="N27" s="1">
+        <v>20702.729999999981</v>
+      </c>
+      <c r="O27" s="1">
+        <v>21294.990452352937</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
+        <v>909</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1038.9736763386179</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1038.9736763386179</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
+        <v>79616.824283165581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>242</v>
+      </c>
+      <c r="F28" s="1">
+        <v>251.66735230419607</v>
+      </c>
+      <c r="G28" s="1">
+        <v>238.59465709307025</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <v>1787</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1725.3404444774235</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1710.157607687456</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1556</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1695.7754250882258</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1656.6383060635228</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
+        <v>113</v>
+      </c>
+      <c r="R28" s="1">
+        <v>113</v>
+      </c>
+      <c r="S28" s="1">
+        <v>113</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
+        <v>3718.3905708440489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6938</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6823.7462611325827</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7406.6735002520591</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>17840</v>
+      </c>
+      <c r="J29" s="1">
+        <v>17918.554332425068</v>
+      </c>
+      <c r="K29" s="1">
+        <v>17161.788337874659</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
+        <v>24487</v>
+      </c>
+      <c r="N29" s="1">
+        <v>21375.194946072461</v>
+      </c>
+      <c r="O29" s="1">
+        <v>20465.929331211661</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>367</v>
+      </c>
+      <c r="R29" s="1">
+        <v>367</v>
+      </c>
+      <c r="S29" s="1">
+        <v>367</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1">
+        <v>20</v>
+      </c>
+      <c r="V29" s="1">
+        <v>20</v>
+      </c>
+      <c r="W29" s="1">
+        <v>20</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
+        <v>45421.391169338378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>868</v>
+      </c>
+      <c r="F30" s="1">
+        <v>899.94532071503693</v>
+      </c>
+      <c r="G30" s="1">
+        <v>898.11987381703477</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>10328</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10199.92443588173</v>
+      </c>
+      <c r="K30" s="1">
+        <v>10363.232482588508</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>3890</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4103.9082722029434</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4072.6916032210447</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <v>224</v>
+      </c>
+      <c r="R30" s="1">
+        <v>217.21212121212122</v>
+      </c>
+      <c r="S30" s="1">
+        <v>217.21212121212119</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1">
+        <v>284</v>
+      </c>
+      <c r="V30" s="1">
+        <v>284</v>
+      </c>
+      <c r="W30" s="1">
+        <v>284</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
+        <v>15835.25608083871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1">
+        <v>58290</v>
+      </c>
+      <c r="F31" s="1">
+        <v>57959.862597592095</v>
+      </c>
+      <c r="G31" s="1">
+        <v>55810.010843703181</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>18112</v>
+      </c>
+      <c r="J31" s="1">
+        <v>18051.640230659777</v>
+      </c>
+      <c r="K31" s="1">
+        <v>17049.939339474276</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>7998</v>
+      </c>
+      <c r="N31" s="1">
+        <v>8106.3416778609308</v>
+      </c>
+      <c r="O31" s="1">
+        <v>8547.0986418336015</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
+        <v>2111</v>
+      </c>
+      <c r="R31" s="1">
+        <v>2482.6812547432328</v>
+      </c>
+      <c r="S31" s="1">
+        <v>2482.6812547432328</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
+        <v>5</v>
+      </c>
+      <c r="V31" s="1">
+        <v>5</v>
+      </c>
+      <c r="W31" s="1">
+        <v>5</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
+        <v>83894.730079754285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1708</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2276.6453172205438</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2999.0187232791723</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>8033</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7440.3584649292452</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6998.2150178906222</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>2804</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2836.1725560193286</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2564.2332254870221</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <v>1734</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1806.25</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1806.25</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
+        <v>14367.716966656817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7490</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9066.0094645391455</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8231.2532037972942</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>6293</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6554.6990746029933</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6338.2940706043646</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>6738</v>
+      </c>
+      <c r="N33" s="1">
+        <v>6910.6801679063256</v>
+      </c>
+      <c r="O33" s="1">
+        <v>6689.3716768539653</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
+        <v>953</v>
+      </c>
+      <c r="R33" s="1">
+        <v>951.91210045662103</v>
+      </c>
+      <c r="S33" s="1">
+        <v>951.91210045662115</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
+        <v>22210.831051712248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1">
+        <v>122521</v>
+      </c>
+      <c r="F34" s="1">
+        <v>127178.50892164468</v>
+      </c>
+      <c r="G34" s="1">
+        <v>127471.01949216447</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>98406</v>
+      </c>
+      <c r="J34" s="1">
+        <v>105161.66757144345</v>
+      </c>
+      <c r="K34" s="1">
+        <v>108071.07540682354</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
+        <v>239072</v>
+      </c>
+      <c r="N34" s="1">
+        <v>245085.48607339925</v>
+      </c>
+      <c r="O34" s="1">
+        <v>240277.71673058215</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
+        <v>6854</v>
+      </c>
+      <c r="R34" s="1">
+        <v>7561.1587301587306</v>
+      </c>
+      <c r="S34" s="1">
+        <v>8159.5238095238101</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1">
+        <v>7861</v>
+      </c>
+      <c r="V34" s="1">
+        <v>7861</v>
+      </c>
+      <c r="W34" s="1">
+        <v>7861</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
+        <v>491840.33543909399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4104</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4059.5954551123727</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3926.2160894368244</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
+        <v>2214</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2198.7388307378101</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1999.7784018381415</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
+        <v>3127</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2896.2938097630276</v>
+      </c>
+      <c r="O35" s="1">
+        <v>3363.7346532187771</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
+        <v>393</v>
+      </c>
+      <c r="R35" s="1">
+        <v>394.63296398891964</v>
+      </c>
+      <c r="S35" s="1">
+        <v>394.63296398891964</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1">
+        <v>5</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5</v>
+      </c>
+      <c r="W35" s="1">
+        <v>5</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
+        <v>9689.3621084826627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8463</v>
+      </c>
+      <c r="F36" s="1">
+        <v>13411.694392171588</v>
+      </c>
+      <c r="G36" s="1">
+        <v>16696.478375487099</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <v>42407</v>
+      </c>
+      <c r="J36" s="1">
+        <v>41784.542129702844</v>
+      </c>
+      <c r="K36" s="1">
+        <v>38897.623824082664</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
+        <v>19479</v>
+      </c>
+      <c r="N36" s="1">
+        <v>18107.186646142003</v>
+      </c>
+      <c r="O36" s="1">
+        <v>17642.419280354086</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <v>3192</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2705.916061463191</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2440.1804143414115</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
+        <v>75676.701894265265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2596</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2387.7181208053694</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1779.5033557046982</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>10420</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9862.5413478616538</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9416.2280476063152</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>910</v>
+      </c>
+      <c r="N37" s="1">
+        <v>736.05516356638873</v>
+      </c>
+      <c r="O37" s="1">
+        <v>643.24567030147534</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1">
+        <v>394</v>
+      </c>
+      <c r="R37" s="1">
+        <v>394</v>
+      </c>
+      <c r="S37" s="1">
+        <v>394</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
+        <v>12232.977073612488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1">
+        <v>162</v>
+      </c>
+      <c r="F38" s="1">
+        <v>151.1495327489362</v>
+      </c>
+      <c r="G38" s="1">
+        <v>161.39477891489361</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
+        <v>7983</v>
+      </c>
+      <c r="J38" s="1">
+        <v>7742.4351715612138</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7888.1900767092038</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1">
+        <v>1880</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1667.5470200777693</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1799.7915403539382</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1">
+        <v>544</v>
+      </c>
+      <c r="R38" s="1">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="S38" s="1">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1">
+        <v>10366.176395978035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="1">
+        <v>33918</v>
+      </c>
+      <c r="F39" s="1">
+        <v>36359.757523328146</v>
+      </c>
+      <c r="G39" s="1">
+        <v>34402.021871526042</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>19206</v>
+      </c>
+      <c r="J39" s="1">
+        <v>18534.147944831057</v>
+      </c>
+      <c r="K39" s="1">
+        <v>19018.43035748279</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>19609</v>
+      </c>
+      <c r="N39" s="1">
+        <v>23001.055038169918</v>
+      </c>
+      <c r="O39" s="1">
+        <v>23279.402564102562</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <v>8532</v>
+      </c>
+      <c r="R39" s="1">
+        <v>8622.8455297511828</v>
+      </c>
+      <c r="S39" s="1">
+        <v>8159.7781213637872</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
+        <v>84860.632914475194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>3487</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3629.0533857945175</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3760.8160097685504</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>10831</v>
+      </c>
+      <c r="N40" s="1">
+        <v>11953.002290480996</v>
+      </c>
+      <c r="O40" s="1">
+        <v>11134.814863721349</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <v>150</v>
+      </c>
+      <c r="R40" s="1">
+        <v>163.63636363636363</v>
+      </c>
+      <c r="S40" s="1">
+        <v>163.63636363636363</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1">
+        <v>15059.267237126263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1">
+        <v>37751</v>
+      </c>
+      <c r="F41" s="1">
+        <v>41415.081854247488</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44413.834547767241</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>9579</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9507.019580717495</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9713.463515400048</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <v>34504</v>
+      </c>
+      <c r="N41" s="1">
+        <v>35522.347222222204</v>
+      </c>
+      <c r="O41" s="1">
+        <v>32826.722222222212</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
+        <v>1286</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1429.8709950301363</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1429.8709950301363</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1">
+        <v>88383.891280419644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1">
+        <v>32091</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32550.587989205171</v>
+      </c>
+      <c r="G42" s="1">
+        <v>40466.799757215762</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <v>47695</v>
+      </c>
+      <c r="J42" s="1">
+        <v>46137.233060217586</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44420.469508406473</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>52973</v>
+      </c>
+      <c r="N42" s="1">
+        <v>44187.240107849459</v>
+      </c>
+      <c r="O42" s="1">
+        <v>41788.891153131037</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1">
+        <v>1034</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1030.8802308802308</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1030.8802308802308</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1">
+        <v>787</v>
+      </c>
+      <c r="V42" s="1">
+        <v>787</v>
+      </c>
+      <c r="W42" s="1">
+        <v>787</v>
+      </c>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1">
+        <v>128494.04064963351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1071.2789718495328</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1071.2789718495328</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
+        <v>3007</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3203.0452736817801</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3279.3977504759387</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>23534</v>
+      </c>
+      <c r="N43" s="1">
+        <v>25397.917122130606</v>
+      </c>
+      <c r="O43" s="1">
+        <v>24744.487380183626</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1">
+        <v>935</v>
+      </c>
+      <c r="R43" s="1">
+        <v>952.41559953434228</v>
+      </c>
+      <c r="S43" s="1">
+        <v>952.41559953434228</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1">
+        <v>30047.57970204344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1473</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1517.58771</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1489.1329404586882</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>67361</v>
+      </c>
+      <c r="J44" s="1">
+        <v>65352.937123214644</v>
+      </c>
+      <c r="K44" s="1">
+        <v>68337.801124151127</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>80246</v>
+      </c>
+      <c r="N44" s="1">
+        <v>85196.8529533822</v>
+      </c>
+      <c r="O44" s="1">
+        <v>86634.376400608657</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
+        <v>6800</v>
+      </c>
+      <c r="R44" s="1">
+        <v>7541.818181818182</v>
+      </c>
+      <c r="S44" s="1">
+        <v>8036.363636363636</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1">
+        <v>164497.67410158212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7728</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7929.7263621519269</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8810.7692273166576</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>8088</v>
+      </c>
+      <c r="J45" s="1">
+        <v>8522.0365382176769</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10062.9705674056</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>2753</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2586.4736206918969</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1347.2380134020493</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
+        <v>699</v>
+      </c>
+      <c r="R45" s="1">
+        <v>707.2971395213076</v>
+      </c>
+      <c r="S45" s="1">
+        <v>707.2971395213076</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1">
+        <v>20928.274947645612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
+        <v>17675</v>
+      </c>
+      <c r="J46" s="1">
+        <v>16606.300815125884</v>
+      </c>
+      <c r="K46" s="1">
+        <v>17063.835045357311</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>7490</v>
+      </c>
+      <c r="N46" s="1">
+        <v>8770.8726341131569</v>
+      </c>
+      <c r="O46" s="1">
+        <v>8874.1201047913582</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
+        <v>272</v>
+      </c>
+      <c r="R46" s="1">
+        <v>306</v>
+      </c>
+      <c r="S46" s="1">
+        <v>306</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1">
+        <v>114</v>
+      </c>
+      <c r="V46" s="1">
+        <v>114</v>
+      </c>
+      <c r="W46" s="1">
+        <v>114</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1">
+        <v>26357.955150148671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>111</v>
+      </c>
+      <c r="J47" s="1">
+        <v>124.69655712374926</v>
+      </c>
+      <c r="K47" s="1">
+        <v>128.18834114274466</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>17138</v>
+      </c>
+      <c r="N47" s="1">
+        <v>18884.522201824817</v>
+      </c>
+      <c r="O47" s="1">
+        <v>22520.537688442211</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
+        <v>514</v>
+      </c>
+      <c r="R47" s="1">
+        <v>543.9153439153439</v>
+      </c>
+      <c r="S47" s="1">
+        <v>543.9153439153439</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1">
+        <v>1470</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1470</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1470</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1">
+        <v>24662.641373500301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>79371</v>
+      </c>
+      <c r="J48" s="1">
+        <v>79949.555309283227</v>
+      </c>
+      <c r="K48" s="1">
+        <v>83313.844293376635</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>41541</v>
+      </c>
+      <c r="N48" s="1">
+        <v>43720.883641341548</v>
+      </c>
+      <c r="O48" s="1">
+        <v>48715.660506502398</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1">
+        <v>5753</v>
+      </c>
+      <c r="R48" s="1">
+        <v>6576.9166430260047</v>
+      </c>
+      <c r="S48" s="1">
+        <v>5848.2033096926716</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1">
+        <v>137877.70810957171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1">
+        <v>841</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
+        <v>10313</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10932.635686814929</v>
+      </c>
+      <c r="K49" s="1">
+        <v>11204.807818461895</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>31592</v>
+      </c>
+      <c r="N49" s="1">
+        <v>32478.86776145914</v>
+      </c>
+      <c r="O49" s="1">
+        <v>32695.937476713414</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
+        <v>2448</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2312</v>
+      </c>
+      <c r="S49" s="1">
+        <v>2312</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
+        <v>508</v>
+      </c>
+      <c r="V49" s="1">
+        <v>508</v>
+      </c>
+      <c r="W49" s="1">
+        <v>508</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1">
+        <v>46720.745295175308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1">
+        <v>332</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
+        <v>13429</v>
+      </c>
+      <c r="J50" s="1">
+        <v>14073.51958206943</v>
+      </c>
+      <c r="K50" s="1">
+        <v>15080.128816986853</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>14568</v>
+      </c>
+      <c r="N50" s="1">
+        <v>15413.380253857264</v>
+      </c>
+      <c r="O50" s="1">
+        <v>17118.534924374857</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
+        <v>2720</v>
+      </c>
+      <c r="R50" s="1">
+        <v>2848.1675392670159</v>
+      </c>
+      <c r="S50" s="1">
+        <v>2848.1675392670159</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1">
+        <v>2623</v>
+      </c>
+      <c r="V50" s="1">
+        <v>2623</v>
+      </c>
+      <c r="W50" s="1">
+        <v>2623</v>
+      </c>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1">
+        <v>37669.831280628729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1134</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1154.13984</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1179.7040371153846</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
+        <v>24320</v>
+      </c>
+      <c r="J51" s="1">
+        <v>22577.443393364407</v>
+      </c>
+      <c r="K51" s="1">
+        <v>23633.84318376127</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>23860</v>
+      </c>
+      <c r="N51" s="1">
+        <v>26245.471070716027</v>
+      </c>
+      <c r="O51" s="1">
+        <v>27826.969629793839</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1">
+        <v>6528</v>
+      </c>
+      <c r="R51" s="1">
+        <v>6009.0376569037653</v>
+      </c>
+      <c r="S51" s="1">
+        <v>6009.0376569037653</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1">
+        <v>58649.554507574256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1">
+        <v>103909</v>
+      </c>
+      <c r="F52" s="1">
+        <v>102863.14063702409</v>
+      </c>
+      <c r="G52" s="1">
+        <v>103664.08358151438</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
+        <v>17958</v>
+      </c>
+      <c r="J52" s="1">
+        <v>17965.719268931221</v>
+      </c>
+      <c r="K52" s="1">
+        <v>18478.417176080351</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>1842</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1853.2844809033613</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1772.1671347421807</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
+        <v>1768</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1827.2044158233671</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1827.2044158233668</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1">
+        <v>125741.87230816028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7756</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7944.4067873785325</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8050.0729202765242</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1">
+        <v>62066</v>
+      </c>
+      <c r="J53" s="1">
+        <v>59423.940401595995</v>
+      </c>
+      <c r="K53" s="1">
+        <v>63049.277710576469</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>13872</v>
+      </c>
+      <c r="N53" s="1">
+        <v>13924.906891175675</v>
+      </c>
+      <c r="O53" s="1">
+        <v>15189.025284078905</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
+        <v>7889</v>
+      </c>
+      <c r="R53" s="1">
+        <v>8671.3615675958354</v>
+      </c>
+      <c r="S53" s="1">
+        <v>8671.3615675958354</v>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1">
+        <v>13921</v>
+      </c>
+      <c r="V53" s="1">
+        <v>13921</v>
+      </c>
+      <c r="W53" s="1">
+        <v>13921</v>
+      </c>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1">
+        <v>108880.73748252774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1">
+        <v>113131</v>
+      </c>
+      <c r="F54" s="1">
+        <v>111961.68726440263</v>
+      </c>
+      <c r="G54" s="1">
+        <v>112893.86053890629</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1">
+        <v>117773</v>
+      </c>
+      <c r="J54" s="1">
+        <v>114040.62264596106</v>
+      </c>
+      <c r="K54" s="1">
+        <v>120241.66688740495</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>54142</v>
+      </c>
+      <c r="N54" s="1">
+        <v>57437.04269665233</v>
+      </c>
+      <c r="O54" s="1">
+        <v>61906.696972989783</v>
+      </c>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1">
+        <v>18905</v>
+      </c>
+      <c r="R54" s="1">
+        <v>19355.771179589981</v>
+      </c>
+      <c r="S54" s="1">
+        <v>19355.771179589981</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1">
+        <v>16544</v>
+      </c>
+      <c r="V54" s="1">
+        <v>16544</v>
+      </c>
+      <c r="W54" s="1">
+        <v>16544</v>
+      </c>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1">
+        <v>330941.99557889096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1">
+        <v>54348</v>
+      </c>
+      <c r="F55" s="1">
+        <v>54484.142284569156</v>
+      </c>
+      <c r="G55" s="1">
+        <v>51951.895791583156</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
+        <v>29495</v>
+      </c>
+      <c r="J55" s="1">
+        <v>31077.441325311211</v>
+      </c>
+      <c r="K55" s="1">
+        <v>31458.450815548022</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>16546</v>
+      </c>
+      <c r="N55" s="1">
+        <v>16480.578241577812</v>
+      </c>
+      <c r="O55" s="1">
+        <v>16372.058730986233</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
+        <v>1224</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1">
+        <v>127</v>
+      </c>
+      <c r="V55" s="1">
+        <v>127</v>
+      </c>
+      <c r="W55" s="1">
+        <v>127</v>
+      </c>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1">
+        <v>101147.00533811742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1">
+        <v>444</v>
+      </c>
+      <c r="F56" s="1">
+        <v>472.89107999999999</v>
+      </c>
+      <c r="G56" s="1">
+        <v>501.5057192369427</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
+        <v>3887</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4928.1887619954414</v>
+      </c>
+      <c r="K56" s="1">
+        <v>5253.9296276652194</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
+        <v>10302</v>
+      </c>
+      <c r="N56" s="1">
+        <v>10388.460597439545</v>
+      </c>
+      <c r="O56" s="1">
+        <v>11271.824125177809</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
+        <v>680</v>
+      </c>
+      <c r="R56" s="1">
+        <v>680</v>
+      </c>
+      <c r="S56" s="1">
+        <v>680</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1">
+        <v>17707.259472079972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1638200</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1791921.7171074566</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1906432.1736260224</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <v>312293</v>
+      </c>
+      <c r="J57" s="1">
+        <v>327721.57975932566</v>
+      </c>
+      <c r="K57" s="1">
+        <v>345050.33945012803</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
+        <v>53683</v>
+      </c>
+      <c r="N57" s="1">
+        <v>65524.373159031617</v>
+      </c>
+      <c r="O57" s="1">
+        <v>72207.859221252846</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <v>255680</v>
+      </c>
+      <c r="R57" s="1">
+        <v>294874.90109890111</v>
+      </c>
+      <c r="S57" s="1">
+        <v>302039.5604395605</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1">
+        <v>2625729.932736964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5393</v>
+      </c>
+      <c r="F58" s="1">
+        <v>6544.5831877786568</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6451.5289469047721</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
+        <v>2599</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2624.1841602187715</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2598.9299260428397</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
+        <v>1768</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1408.0492787037949</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1296.5795755393499</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
+        <v>136</v>
+      </c>
+      <c r="R58" s="1">
+        <v>136</v>
+      </c>
+      <c r="S58" s="1">
+        <v>136</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1">
+        <v>10483.038448486963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1">
+        <v>365005</v>
+      </c>
+      <c r="F59" s="1">
+        <v>376021.4263618493</v>
+      </c>
+      <c r="G59" s="1">
+        <v>414468.22307260463</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1">
+        <v>126887</v>
+      </c>
+      <c r="J59" s="1">
+        <v>133116.27051759762</v>
+      </c>
+      <c r="K59" s="1">
+        <v>140119.9054173617</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
+        <v>26850</v>
+      </c>
+      <c r="N59" s="1">
+        <v>26515.94941872323</v>
+      </c>
+      <c r="O59" s="1">
+        <v>23674.649225077435</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
+        <v>28560</v>
+      </c>
+      <c r="R59" s="1">
+        <v>31156.363636363636</v>
+      </c>
+      <c r="S59" s="1">
+        <v>32454.545454545456</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1">
+        <v>509</v>
+      </c>
+      <c r="V59" s="1">
+        <v>509</v>
+      </c>
+      <c r="W59" s="1">
+        <v>509</v>
+      </c>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1">
+        <v>611226.32316958916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="1">
+        <v>35348</v>
+      </c>
+      <c r="F60" s="1">
+        <v>41973.270364179101</v>
+      </c>
+      <c r="G60" s="1">
+        <v>43261.73134328358</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
+        <v>57155</v>
+      </c>
+      <c r="J60" s="1">
+        <v>62375.945017928621</v>
+      </c>
+      <c r="K60" s="1">
+        <v>62793.365747928015</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
+        <v>20123</v>
+      </c>
+      <c r="N60" s="1">
+        <v>18614.31849597496</v>
+      </c>
+      <c r="O60" s="1">
+        <v>17886.965708014206</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
+        <v>2992</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3205.7142857142858</v>
+      </c>
+      <c r="S60" s="1">
+        <v>3312.5714285714289</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1">
+        <v>2733</v>
+      </c>
+      <c r="V60" s="1">
+        <v>2733</v>
+      </c>
+      <c r="W60" s="1">
+        <v>2733</v>
+      </c>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1">
+        <v>129987.63422779723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="1">
+        <v>118889</v>
+      </c>
+      <c r="F61" s="1">
+        <v>113141.84096364425</v>
+      </c>
+      <c r="G61" s="1">
+        <v>119527.87235591628</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
+        <v>139622</v>
+      </c>
+      <c r="J61" s="1">
+        <v>140035.2526261778</v>
+      </c>
+      <c r="K61" s="1">
+        <v>149291.37892896746</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
+        <v>53738</v>
+      </c>
+      <c r="N61" s="1">
+        <v>59991.705472991562</v>
+      </c>
+      <c r="O61" s="1">
+        <v>66378.302357048568</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
+        <v>7008</v>
+      </c>
+      <c r="R61" s="1">
+        <v>6976.0378837868257</v>
+      </c>
+      <c r="S61" s="1">
+        <v>7072.4682684469981</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1">
+        <v>342270.02191037923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="1">
+        <v>16771</v>
+      </c>
+      <c r="F62" s="1">
+        <v>16765.325302835488</v>
+      </c>
+      <c r="G62" s="1">
+        <v>16270.832191919875</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
+        <v>19290</v>
+      </c>
+      <c r="J62" s="1">
+        <v>19766.650283289899</v>
+      </c>
+      <c r="K62" s="1">
+        <v>20241.780572580003</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
+        <v>17535</v>
+      </c>
+      <c r="N62" s="1">
+        <v>16272.162407700172</v>
+      </c>
+      <c r="O62" s="1">
+        <v>16949.407672264901</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
+        <v>2652</v>
+      </c>
+      <c r="R62" s="1">
+        <v>2616.8404007691529</v>
+      </c>
+      <c r="S62" s="1">
+        <v>2616.8404007691529</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1">
+        <v>2874</v>
+      </c>
+      <c r="V62" s="1">
+        <v>2874</v>
+      </c>
+      <c r="W62" s="1">
+        <v>2874</v>
+      </c>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1">
+        <v>58952.860837533932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1416</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1445.5778394988449</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1757.588569072228</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
+        <v>4596</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4539.3447482281745</v>
+      </c>
+      <c r="K63" s="1">
+        <v>4549.0159068327903</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>2329</v>
+      </c>
+      <c r="N63" s="1">
+        <v>2103.7950881162924</v>
+      </c>
+      <c r="O63" s="1">
+        <v>2295.435175953553</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1">
+        <v>163</v>
+      </c>
+      <c r="R63" s="1">
+        <v>149.41666666666666</v>
+      </c>
+      <c r="S63" s="1">
+        <v>149.41666666666666</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1">
+        <v>101</v>
+      </c>
+      <c r="V63" s="1">
+        <v>101</v>
+      </c>
+      <c r="W63" s="1">
+        <v>101</v>
+      </c>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1">
+        <v>8852.4563185252373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4756</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4577.7719212701641</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4508.8896722648415</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
+        <v>16989</v>
+      </c>
+      <c r="J64" s="1">
+        <v>17217.525982179839</v>
+      </c>
+      <c r="K64" s="1">
+        <v>16534.629869873239</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
+        <v>18188</v>
+      </c>
+      <c r="N64" s="1">
+        <v>17969.743999999999</v>
+      </c>
+      <c r="O64" s="1">
+        <v>19027.869795609386</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
+        <v>4080</v>
+      </c>
+      <c r="R64" s="1">
+        <v>3980.4878048780488</v>
+      </c>
+      <c r="S64" s="1">
+        <v>3980.4878048780488</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1">
+        <v>44051.877142625519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6803</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7277.5695534806528</v>
+      </c>
+      <c r="G65" s="1">
+        <v>8263.6895377293549</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1">
+        <v>11356</v>
+      </c>
+      <c r="J65" s="1">
+        <v>11050.71688571405</v>
+      </c>
+      <c r="K65" s="1">
+        <v>11161.945329444712</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>1929</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2108.3854130253471</v>
+      </c>
+      <c r="O65" s="1">
+        <v>2023.3804899621268</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1">
+        <v>2162</v>
+      </c>
+      <c r="R65" s="1">
+        <v>2175.5974842767296</v>
+      </c>
+      <c r="S65" s="1">
+        <v>2175.5974842767296</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1">
+        <v>23624.612841412923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
+        <v>-817</v>
+      </c>
+      <c r="J66" s="1">
+        <v>-853.59594721127564</v>
+      </c>
+      <c r="K66" s="1">
+        <v>-859.37793458431963</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1">
+        <v>4497</v>
+      </c>
+      <c r="N66" s="1">
+        <v>4693.3846479890135</v>
+      </c>
+      <c r="O66" s="1">
+        <v>4447.0191011631123</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1">
+        <v>3587.6411665787928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="1">
+        <v>76263</v>
+      </c>
+      <c r="F67" s="1">
+        <v>84044.446611152103</v>
+      </c>
+      <c r="G67" s="1">
+        <v>82238.44795709</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1">
+        <v>47701</v>
+      </c>
+      <c r="J67" s="1">
+        <v>48079.426299816252</v>
+      </c>
+      <c r="K67" s="1">
+        <v>49431.626913763663</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>24389</v>
+      </c>
+      <c r="N67" s="1">
+        <v>26246.755859375</v>
+      </c>
+      <c r="O67" s="1">
+        <v>28371.039574032733</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1">
+        <v>6424</v>
+      </c>
+      <c r="R67" s="1">
+        <v>6543.2138338253899</v>
+      </c>
+      <c r="S67" s="1">
+        <v>6638.0430198228596</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1">
+        <v>166679.15746470925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="1">
+        <v>42081</v>
+      </c>
+      <c r="F68" s="1">
+        <v>43324.581803432025</v>
+      </c>
+      <c r="G68" s="1">
+        <v>42918.976247634426</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1">
+        <v>18652</v>
+      </c>
+      <c r="J68" s="1">
+        <v>17254.609755278128</v>
+      </c>
+      <c r="K68" s="1">
+        <v>16996.164545246033</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
+        <v>8094</v>
+      </c>
+      <c r="N68" s="1">
+        <v>8909.7978781670372</v>
+      </c>
+      <c r="O68" s="1">
+        <v>9351.7385642128465</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1">
+        <v>2217</v>
+      </c>
+      <c r="R68" s="1">
+        <v>2291.9381633028647</v>
+      </c>
+      <c r="S68" s="1">
+        <v>2291.9381633028647</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1">
+        <v>71558.817520396173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="1">
+        <v>15320</v>
+      </c>
+      <c r="F69" s="1">
+        <v>15983.613516083642</v>
+      </c>
+      <c r="G69" s="1">
+        <v>15980.63878422615</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1">
+        <v>38139</v>
+      </c>
+      <c r="J69" s="1">
+        <v>40888.483820281079</v>
+      </c>
+      <c r="K69" s="1">
+        <v>42467.789670371145</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>22102</v>
+      </c>
+      <c r="N69" s="1">
+        <v>22836.369844179651</v>
+      </c>
+      <c r="O69" s="1">
+        <v>25108.080690079478</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1">
+        <v>4963</v>
+      </c>
+      <c r="R69" s="1">
+        <v>4987.8857135028493</v>
+      </c>
+      <c r="S69" s="1">
+        <v>4487.5876808417361</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1">
+        <v>88044.0968255185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="1">
+        <v>16181</v>
+      </c>
+      <c r="F70" s="1">
+        <v>17517.744395614154</v>
+      </c>
+      <c r="G70" s="1">
+        <v>17423.277685888042</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1">
+        <v>13061</v>
+      </c>
+      <c r="J70" s="1">
+        <v>14217.757435558491</v>
+      </c>
+      <c r="K70" s="1">
+        <v>14351.993079291475</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
+        <v>4926</v>
+      </c>
+      <c r="N70" s="1">
+        <v>4442.9355456285903</v>
+      </c>
+      <c r="O70" s="1">
+        <v>4926.5239310784946</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1">
+        <v>6800</v>
+      </c>
+      <c r="R70" s="1">
+        <v>7190.6504866550749</v>
+      </c>
+      <c r="S70" s="1">
+        <v>7922.7087777160368</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1">
+        <v>44624.503473974044</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6304,13 +10371,579 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1396790.7648451091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>137819.83011260908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>129942.37582630581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>53547.937624577215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>122082.41549725691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24778.588030401319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21981.374513227292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9513.9366238645707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17805.006345243961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12835.629274219658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56599.572881389635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16312.18374570173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13897.073742635057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16907.219335105743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1">
+        <v>27050.534949886813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12414.359814007172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>28288.208953162346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10007.632989994278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>13055.362836911692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>93712.565440615203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>199716.14896148487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22289.532632336344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12675.221851083235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9889.6927845552054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>102368.62639672708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>79616.824283165581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3718.3905708440489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45421.391169338378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15835.25608083871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>83894.730079754285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>14367.716966656817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>22210.831051712248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>491840.33543909399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9689.3621084826627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>75676.701894265265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>12232.977073612488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10366.176395978035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>84860.632914475194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15059.267237126263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>88383.891280419644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>128494.04064963351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>30047.57970204344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>164497.67410158212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20928.274947645612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>26357.955150148671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>24662.641373500301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>137877.70810957171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46720.745295175308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1">
+        <v>37669.831280628729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1">
+        <v>58649.554507574256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1">
+        <v>125741.87230816028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>108880.73748252774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1">
+        <v>330941.99557889096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1">
+        <v>101147.00533811742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1">
+        <v>17707.259472079972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2625729.932736964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10483.038448486963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1">
+        <v>611226.32316958916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1">
+        <v>129987.63422779723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1">
+        <v>342270.02191037923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1">
+        <v>58952.860837533932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8852.4563185252373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44051.877142625519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1">
+        <v>23624.612841412923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3587.6411665787928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1">
+        <v>166679.15746470925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="1">
+        <v>71558.817520396173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1">
+        <v>88044.0968255185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44624.503473974044</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/3-climate-change/data/CO2_emissions_2012.xlsx
+++ b/3-climate-change/data/CO2_emissions_2012.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140" activeTab="2"/>
+    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ok" sheetId="4" r:id="rId2"/>
-    <sheet name="ok (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="CURATED" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CURATED!$A$1:$C$70</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="98">
   <si>
     <t>US</t>
   </si>
@@ -313,6 +316,9 @@
   <si>
     <t>COUNTRY</t>
   </si>
+  <si>
+    <t>string1</t>
+  </si>
 </sst>
 </file>
 
@@ -376,10 +382,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -393,16 +421,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="33">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -705,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:X1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10373,7 +10423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -10381,567 +10433,851 @@
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
+        <v>2625729.932736964</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("['",A2,"', ",INT(B2),"],")</f>
+        <v>['China', 2625729],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1396790.7648451091</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("['",A3,"', ",INT(B3),"],")</f>
+        <v>['US', 1396790],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <v>611226.32316958916</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>['India', 611226],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>491840.33543909399</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>['Russian Federation', 491840],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>342270.02191037923</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>['Japan', 342270],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1">
+        <v>330941.99557889096</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>['Total Africa', 330941],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>199716.14896148487</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>['Germany', 199716],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1">
+        <v>166679.15746470925</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>['South Korea', 166679],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>164497.67410158212</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>['Iran', 164497],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>137877.70810957171</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>['Saudi Arabia', 137877],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B12" s="1">
         <v>137819.83011260908</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>['Canada', 137819],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1">
+        <v>129987.63422779723</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>['Indonesia', 129987],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B14" s="1">
         <v>129942.37582630581</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>53547.937624577215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>['Mexico', 129942],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>128494.04064963351</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>['United Kingdom', 128494],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>125741.87230816028</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>['South Africa', 125741],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B17" s="1">
         <v>122082.41549725691</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>24778.588030401319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21981.374513227292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9513.9366238645707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>17805.006345243961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>12835.629274219658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>56599.572881389635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16312.18374570173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13897.073742635057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>16907.219335105743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1">
-        <v>27050.534949886813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>12414.359814007172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>['Brazil', 122082],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
-        <v>28288.208953162346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>108880.73748252774</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>['Other Africa', 108880],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>10007.632989994278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>102368.62639672708</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>['Italy', 102368],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1">
-        <v>13055.362836911692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>101147.00533811742</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>['Australia', 101147],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>93712.565440615203</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>['France', 93712],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
-        <v>199716.14896148487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>88383.891280419644</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>['Ukraine', 88383],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1">
+        <v>88044.0968255185</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>['Thailand', 88044],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>84860.632914475194</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>['Turkey', 84860],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>83894.730079754285</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>['Poland', 83894],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>79616.824283165581</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>['Kazakhstan', 79616],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>75676.701894265265</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>['Spain', 75676],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1">
+        <v>71558.817520396173</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>['Taiwan', 71558],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1">
+        <v>58952.860837533932</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>['Malaysia', 58952],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1">
+        <v>58649.554507574256</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>['Egypt', 58649],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>56599.572881389635</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>['Venezuela', 56599],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>53547.937624577215</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>['Argentina', 53547],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>46720.745295175308</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>['United Arab Emirates', 46720],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45421.391169338378</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>['Netherlands', 45421],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44624.503473974044</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>['Vietnam', 44624],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44051.877142625519</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>['Pakistan', 44051],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
+        <v>37669.831280628729</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>['Algeria', 37669],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>30047.57970204344</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>['Uzbekistan', 30047],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>28288.208953162346</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>['Czech Republic', 28288],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1">
+        <v>27050.534949886813</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>['Belgium', 27050],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1">
+        <v>26357.955150148671</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>['Kuwait', 26357],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>24778.588030401319</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>['Chile', 24778],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <v>24662.641373500301</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>['Qatar', 24662],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1">
+        <v>23624.612841412923</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>['Philippines', 23624],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B45" s="1">
         <v>22289.532632336344</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greece', 22289],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="1">
+        <v>22210.831051712248</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>['Romania', 22210],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>21981.374513227292</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>['Colombia', 21981],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>20928.274947645612</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>['Israel', 20928],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17805.006345243961</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>['Peru', 17805],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1">
+        <v>17707.259472079972</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bangladesh', 17707],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1">
+        <v>16907.219335105743</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>['Belarus', 16907],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16312.18374570173</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>['Austria', 16312],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15835.25608083871</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>['Norway', 15835],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15059.267237126263</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>['Turkmenistan', 15059],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14367.716966656817</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>['Portugal', 14367],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1">
+        <v>13897.073742635057</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>['Azerbaijan', 13897],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
+        <v>13055.362836911692</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>['Finland', 13055],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>12835.629274219658</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>['Trinidad &amp; Tobago', 12835],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B59" s="1">
         <v>12675.221851083235</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>['Hungary', 12675],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1">
+        <v>12414.359814007172</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bulgaria', 12414],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1">
+        <v>12232.977073612488</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>['Sweden', 12232],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>10483.038448486963</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>['China Hong Kong SAR', 10483],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10366.176395978035</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>['Switzerland', 10366],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10007.632989994278</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>['Denmark', 10007],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B65" s="1">
         <v>9889.6927845552054</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>102368.62639672708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>79616.824283165581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>['Republic of Ireland', 9889],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9689.3621084826627</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>['Slovakia', 9689],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9513.9366238645707</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C70" si="1">CONCATENATE("['",A67,"', ",INT(B67),"],")</f>
+        <v>['Ecuador', 9513],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8852.4563185252373</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>['New Zealand', 8852],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B69" s="1">
         <v>3718.3905708440489</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45421.391169338378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>15835.25608083871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>83894.730079754285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1">
-        <v>14367.716966656817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1">
-        <v>22210.831051712248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1">
-        <v>491840.33543909399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9689.3621084826627</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
-        <v>75676.701894265265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1">
-        <v>12232.977073612488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>10366.176395978035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1">
-        <v>84860.632914475194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>15059.267237126263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
-        <v>88383.891280419644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>128494.04064963351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>30047.57970204344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1">
-        <v>164497.67410158212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="1">
-        <v>20928.274947645612</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1">
-        <v>26357.955150148671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1">
-        <v>24662.641373500301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1">
-        <v>137877.70810957171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="1">
-        <v>46720.745295175308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1">
-        <v>37669.831280628729</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1">
-        <v>58649.554507574256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1">
-        <v>125741.87230816028</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="1">
-        <v>108880.73748252774</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1">
-        <v>330941.99557889096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="1">
-        <v>101147.00533811742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="1">
-        <v>17707.259472079972</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="1">
-        <v>2625729.932736964</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1">
-        <v>10483.038448486963</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="1">
-        <v>611226.32316958916</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="1">
-        <v>129987.63422779723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="1">
-        <v>342270.02191037923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="1">
-        <v>58952.860837533932</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="1">
-        <v>8852.4563185252373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="1">
-        <v>44051.877142625519</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="1">
-        <v>23624.612841412923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lithuania', 3718],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B70" s="1">
         <v>3587.6411665787928</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="1">
-        <v>166679.15746470925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="1">
-        <v>71558.817520396173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="1">
-        <v>88044.0968255185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="1">
-        <v>44624.503473974044</v>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>['Singapore', 3587],</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C70">
+    <sortState ref="A2:C70">
+      <sortCondition descending="1" ref="B1:B70"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/3-climate-change/data/CO2_emissions_2012.xlsx
+++ b/3-climate-change/data/CO2_emissions_2012.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ok" sheetId="4" r:id="rId2"/>
     <sheet name="CURATED" sheetId="6" r:id="rId3"/>
+    <sheet name="popn" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CURATED!$A$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CURATED!$A$1:$C$69</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="285">
   <si>
     <t>US</t>
   </si>
@@ -318,6 +319,567 @@
   </si>
   <si>
     <t>string1</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Population2012</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Arab World</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Central Europe and the Baltics</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Caribbean small states</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (developing only)</t>
+  </si>
+  <si>
+    <t>East Asia &amp; Pacific (all income levels)</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (developing only)</t>
+  </si>
+  <si>
+    <t>Europe &amp; Central Asia (all income levels)</t>
+  </si>
+  <si>
+    <t>Euro area</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Fragile and conflict affected situations</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Micronesia, Fed. Sts.</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Heavily indebted poor countries (HIPC)</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean (developing only)</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Latin America &amp; Caribbean (all income levels)</t>
+  </si>
+  <si>
+    <t>Least developed countries: UN classification</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Low &amp; middle income</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (all income levels)</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Middle income</t>
+  </si>
+  <si>
+    <t>Macedonia, FYR</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North Africa (developing only)</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>High income: nonOECD</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>High income: OECD</t>
+  </si>
+  <si>
+    <t>OECD members</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Other small states</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Pacific island small states</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (developing only)</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa (all income levels)</t>
+  </si>
+  <si>
+    <t>Small states</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>PERCAPITACO2</t>
   </si>
 </sst>
 </file>
@@ -382,7 +944,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,12 +978,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +1007,9 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -453,6 +1025,9 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -755,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -10421,19 +10996,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -10443,8 +11021,14 @@
       <c r="C1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -10455,8 +11039,20 @@
         <f>CONCATENATE("['",A2,"', ",INT(B2),"],")</f>
         <v>['China', 2625729],</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>VLOOKUP(A2,popn!$A$2:$B$248,2,0)</f>
+        <v>1350695000</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2/D2*1000</f>
+        <v>1.9439843434209529</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("['",A2,"', ",E2,"],")</f>
+        <v>['China', 1.94398434342095],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -10464,11 +11060,23 @@
         <v>1396790.7648451091</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">CONCATENATE("['",A3,"', ",INT(B3),"],")</f>
+        <f t="shared" ref="C3:C65" si="0">CONCATENATE("['",A3,"', ",INT(B3),"],")</f>
         <v>['US', 1396790],</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f>VLOOKUP(A3,popn!$A$2:$B$248,2,0)</f>
+        <v>313873685</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="1">B3/D3*1000</f>
+        <v>4.4501684327091935</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="2">CONCATENATE("['",A3,"', ",E3,"],")</f>
+        <v>['US', 4.45016843270919],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -10479,8 +11087,20 @@
         <f t="shared" si="0"/>
         <v>['India', 611226],</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f>VLOOKUP(A4,popn!$A$2:$B$248,2,0)</f>
+        <v>1236686732</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49424507221897584</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>['India', 0.494245072218976],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10491,8 +11111,20 @@
         <f t="shared" si="0"/>
         <v>['Russian Federation', 491840],</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f>VLOOKUP(A5,popn!$A$2:$B$248,2,0)</f>
+        <v>143178000</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4351669630745922</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>['Russian Federation', 3.43516696307459],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -10503,777 +11135,1517 @@
         <f t="shared" si="0"/>
         <v>['Japan', 342270],</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f>VLOOKUP(A6,popn!$A$2:$B$248,2,0)</f>
+        <v>127561489</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6831767533724791</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>['Japan', 2.68317675337248],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>330941.99557889096</v>
+        <v>199716.14896148487</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>['Total Africa', 330941],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>['Germany', 199716],</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(A7,popn!$A$2:$B$248,2,0)</f>
+        <v>80425823</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4832341344083586</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>['Germany', 2.48323413440836],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1">
-        <v>199716.14896148487</v>
+        <v>166679.15746470925</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>['Germany', 199716],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>['South Korea', 166679],</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(A8,popn!$A$2:$B$248,2,0)</f>
+        <v>50004441</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3332870867351412</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>['South Korea', 3.33328708673514],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
-        <v>166679.15746470925</v>
+        <v>164497.67410158212</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>['South Korea', 166679],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>['Iran', 164497],</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(A9,popn!$A$2:$B$248,2,0)</f>
+        <v>76424443</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1524222832946536</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>['Iran', 2.15242228329465],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>164497.67410158212</v>
+        <v>137877.70810957171</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>['Iran', 164497],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>['Saudi Arabia', 137877],</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(A10,popn!$A$2:$B$248,2,0)</f>
+        <v>28287855</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8740955477031296</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>['Saudi Arabia', 4.87409554770313],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>137877.70810957171</v>
+        <v>137819.83011260908</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>['Saudi Arabia', 137877],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>['Canada', 137819],</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(A11,popn!$A$2:$B$248,2,0)</f>
+        <v>34752128</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9657954215813507</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>['Canada', 3.96579542158135],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
-        <v>137819.83011260908</v>
+        <v>129987.63422779723</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>['Canada', 137819],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>['Indonesia', 129987],</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(A12,popn!$A$2:$B$248,2,0)</f>
+        <v>246864191</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52655524359868466</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>['Indonesia', 0.526555243598685],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>129987.63422779723</v>
+        <v>129942.37582630581</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>['Indonesia', 129987],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>['Mexico', 129942],</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(A13,popn!$A$2:$B$248,2,0)</f>
+        <v>120847477</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0752593190365556</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>['Mexico', 1.07525931903656],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
-        <v>129942.37582630581</v>
+        <v>128494.04064963351</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>['Mexico', 129942],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>['United Kingdom', 128494],</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(A14,popn!$A$2:$B$248,2,0)</f>
+        <v>63700300</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0171653924649258</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>['United Kingdom', 2.01716539246493],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1">
-        <v>128494.04064963351</v>
+        <v>125741.87230816028</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>['United Kingdom', 128494],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>['South Africa', 125741],</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(A15,popn!$A$2:$B$248,2,0)</f>
+        <v>52341695</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4023270990394998</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>['South Africa', 2.4023270990395],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>125741.87230816028</v>
+        <v>122082.41549725691</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>['South Africa', 125741],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>['Brazil', 122082],</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(A16,popn!$A$2:$B$248,2,0)</f>
+        <v>198656019</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.614541739594897</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>['Brazil', 0.614541739594897],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
-        <v>122082.41549725691</v>
+        <v>108880.73748252774</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>['Brazil', 122082],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>['Other Africa', 108880],</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(A17,popn!$A$2:$B$248,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>108880.73748252774</v>
+        <v>102368.62639672708</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>['Other Africa', 108880],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>['Italy', 102368],</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(A18,popn!$A$2:$B$248,2,0)</f>
+        <v>59539717</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7193334391684643</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>['Italy', 1.71933343916846],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
-        <v>102368.62639672708</v>
+        <v>101147.00533811742</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>['Italy', 102368],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>['Australia', 101147],</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(A19,popn!$A$2:$B$248,2,0)</f>
+        <v>22728300</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4502670828050244</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>['Australia', 4.45026708280502],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>101147.00533811742</v>
+        <v>93712.565440615203</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>['Australia', 101147],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>['France', 93712],</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(A20,popn!$A$2:$B$248,2,0)</f>
+        <v>65649570</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4274665537126168</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>['France', 1.42746655371262],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
-        <v>93712.565440615203</v>
+        <v>88383.891280419644</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>['France', 93712],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>['Ukraine', 88383],</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(A21,popn!$A$2:$B$248,2,0)</f>
+        <v>45593300</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9385280574211485</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>['Ukraine', 1.93852805742115],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
-        <v>88383.891280419644</v>
+        <v>88044.0968255185</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>['Ukraine', 88383],</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>['Thailand', 88044],</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(A22,popn!$A$2:$B$248,2,0)</f>
+        <v>66785001</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3183214121014761</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>['Thailand', 1.31832141210148],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
-        <v>88044.0968255185</v>
+        <v>84860.632914475194</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>['Thailand', 88044],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>['Turkey', 84860],</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(A23,popn!$A$2:$B$248,2,0)</f>
+        <v>73997128</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1468098182739632</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>['Turkey', 1.14680981827396],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>84860.632914475194</v>
+        <v>83894.730079754285</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>['Turkey', 84860],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>['Poland', 83894],</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(A24,popn!$A$2:$B$248,2,0)</f>
+        <v>38535873</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1770553914726234</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>['Poland', 2.17705539147262],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>83894.730079754285</v>
+        <v>79616.824283165581</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>['Poland', 83894],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>['Kazakhstan', 79616],</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(A25,popn!$A$2:$B$248,2,0)</f>
+        <v>16791425</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7415168327384718</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>['Kazakhstan', 4.74151683273847],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>79616.824283165581</v>
+        <v>75676.701894265265</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>['Kazakhstan', 79616],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>['Spain', 75676],</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(A26,popn!$A$2:$B$248,2,0)</f>
+        <v>46773055</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.617955078928782</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>['Spain', 1.61795507892878],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
-        <v>75676.701894265265</v>
+        <v>71558.817520396173</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>['Spain', 75676],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>['Taiwan', 71558],</v>
+      </c>
+      <c r="D27" t="e">
+        <f>VLOOKUP(A27,popn!$A$2:$B$248,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
-        <v>71558.817520396173</v>
+        <v>58952.860837533932</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>['Taiwan', 71558],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>['Malaysia', 58952],</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(A28,popn!$A$2:$B$248,2,0)</f>
+        <v>29239927</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0161767448165633</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>['Malaysia', 2.01617674481656],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1">
-        <v>58952.860837533932</v>
+        <v>58649.554507574256</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>['Malaysia', 58952],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>['Egypt', 58649],</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(A29,popn!$A$2:$B$248,2,0)</f>
+        <v>80721874</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72656334152468083</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>['Egypt', 0.726563341524681],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>58649.554507574256</v>
+        <v>56599.572881389635</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>['Egypt', 58649],</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>['Venezuela', 56599],</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(A30,popn!$A$2:$B$248,2,0)</f>
+        <v>29954782</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8895004103648505</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>['Venezuela', 1.88950041036485],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>56599.572881389635</v>
+        <v>53547.937624577215</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>['Venezuela', 56599],</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>['Argentina', 53547],</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(A31,popn!$A$2:$B$248,2,0)</f>
+        <v>41086927</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3032840743864154</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>['Argentina', 1.30328407438642],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
-        <v>53547.937624577215</v>
+        <v>46720.745295175308</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>['Argentina', 53547],</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>['United Arab Emirates', 46720],</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(A32,popn!$A$2:$B$248,2,0)</f>
+        <v>9205651</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0752244784399609</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>['United Arab Emirates', 5.07522447843996],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>46720.745295175308</v>
+        <v>45421.391169338378</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>['United Arab Emirates', 46720],</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>['Netherlands', 45421],</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(A33,popn!$A$2:$B$248,2,0)</f>
+        <v>16754962</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>2.710921765703699</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>['Netherlands', 2.7109217657037],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
-        <v>45421.391169338378</v>
+        <v>44624.503473974044</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>['Netherlands', 45421],</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>['Vietnam', 44624],</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(A34,popn!$A$2:$B$248,2,0)</f>
+        <v>88772900</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50268160073596824</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>['Vietnam', 0.502681600735968],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1">
-        <v>44624.503473974044</v>
+        <v>44051.877142625519</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>['Vietnam', 44624],</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>['Pakistan', 44051],</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(A35,popn!$A$2:$B$248,2,0)</f>
+        <v>179160111</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24587993888118054</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>['Pakistan', 0.245879938881181],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
-        <v>44051.877142625519</v>
+        <v>37669.831280628729</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>['Pakistan', 44051],</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>['Algeria', 37669],</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(A36,popn!$A$2:$B$248,2,0)</f>
+        <v>38481705</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97890234542956778</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>['Algeria', 0.978902345429568],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
-        <v>37669.831280628729</v>
+        <v>30047.57970204344</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>['Algeria', 37669],</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>['Uzbekistan', 30047],</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(A37,popn!$A$2:$B$248,2,0)</f>
+        <v>29774500</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0091715965689916</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>['Uzbekistan', 1.00917159656899],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
-        <v>30047.57970204344</v>
+        <v>28288.208953162346</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>['Uzbekistan', 30047],</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>['Czech Republic', 28288],</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(A38,popn!$A$2:$B$248,2,0)</f>
+        <v>10510785</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6913507367111347</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>['Czech Republic', 2.69135073671113],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
-        <v>28288.208953162346</v>
+        <v>27050.534949886813</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>['Czech Republic', 28288],</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>['Belgium', 27050],</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(A39,popn!$A$2:$B$248,2,0)</f>
+        <v>11128246</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4307995123298687</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>['Belgium', 2.43079951232987],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
-        <v>27050.534949886813</v>
+        <v>26357.955150148671</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>['Belgium', 27050],</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>['Kuwait', 26357],</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(A40,popn!$A$2:$B$248,2,0)</f>
+        <v>3250496</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1089025029252984</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>['Kuwait', 8.1089025029253],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
-        <v>26357.955150148671</v>
+        <v>24778.588030401319</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>['Kuwait', 26357],</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>['Chile', 24778],</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(A41,popn!$A$2:$B$248,2,0)</f>
+        <v>17464814</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4187719394206728</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>['Chile', 1.41877193942067],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>24778.588030401319</v>
+        <v>24662.641373500301</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>['Chile', 24778],</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>['Qatar', 24662],</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(A42,popn!$A$2:$B$248,2,0)</f>
+        <v>2050514</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>12.027541081650893</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>['Qatar', 12.0275410816509],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1">
-        <v>24662.641373500301</v>
+        <v>23624.612841412923</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>['Qatar', 24662],</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>['Philippines', 23624],</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(A43,popn!$A$2:$B$248,2,0)</f>
+        <v>96706764</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24429121463947367</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>['Philippines', 0.244291214639474],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
-        <v>23624.612841412923</v>
+        <v>22289.532632336344</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>['Philippines', 23624],</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>['Greece', 22289],</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(A44,popn!$A$2:$B$248,2,0)</f>
+        <v>11092771</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0093746307695652</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v>['Greece', 2.00937463076957],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
-        <v>22289.532632336344</v>
+        <v>22210.831051712248</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>['Greece', 22289],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>['Romania', 22210],</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(A45,popn!$A$2:$B$248,2,0)</f>
+        <v>20058035</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1073283625096999</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v>['Romania', 1.1073283625097],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
-        <v>22210.831051712248</v>
+        <v>21981.374513227292</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>['Romania', 22210],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>['Colombia', 21981],</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(A46,popn!$A$2:$B$248,2,0)</f>
+        <v>47704427</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46078269660858295</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>['Colombia', 0.460782696608583],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>21981.374513227292</v>
+        <v>20928.274947645612</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>['Colombia', 21981],</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>['Israel', 20928],</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(A47,popn!$A$2:$B$248,2,0)</f>
+        <v>7910500</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6456323807149502</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>['Israel', 2.64563238071495],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>20928.274947645612</v>
+        <v>17805.006345243961</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>['Israel', 20928],</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>['Peru', 17805],</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(A48,popn!$A$2:$B$248,2,0)</f>
+        <v>29987800</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59374166645248938</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v>['Peru', 0.593741666452489],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1">
-        <v>17805.006345243961</v>
+        <v>17707.259472079972</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>['Peru', 17805],</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>['Bangladesh', 17707],</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(A49,popn!$A$2:$B$248,2,0)</f>
+        <v>154695368</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11446535019768642</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v>['Bangladesh', 0.114465350197686],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1">
-        <v>17707.259472079972</v>
+        <v>16907.219335105743</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>['Bangladesh', 17707],</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>['Belarus', 16907],</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(A50,popn!$A$2:$B$248,2,0)</f>
+        <v>9464000</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7864771064143854</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v>['Belarus', 1.78647710641439],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1">
-        <v>16907.219335105743</v>
+        <v>16312.18374570173</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>['Belarus', 16907],</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>['Austria', 16312],</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(A51,popn!$A$2:$B$248,2,0)</f>
+        <v>8429991</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9350179313004876</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v>['Austria', 1.93501793130049],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
-        <v>16312.18374570173</v>
+        <v>15835.25608083871</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>['Austria', 16312],</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>['Norway', 15835],</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(A52,popn!$A$2:$B$248,2,0)</f>
+        <v>5018573</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1553304257681831</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v>['Norway', 3.15533042576818],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
-        <v>15835.25608083871</v>
+        <v>15059.267237126263</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>['Norway', 15835],</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>['Turkmenistan', 15059],</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(A53,popn!$A$2:$B$248,2,0)</f>
+        <v>5172931</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9111672351953395</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="2"/>
+        <v>['Turkmenistan', 2.91116723519534],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1">
-        <v>15059.267237126263</v>
+        <v>14367.716966656817</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>['Turkmenistan', 15059],</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>['Portugal', 14367],</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(A54,popn!$A$2:$B$248,2,0)</f>
+        <v>10514844</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3664222661464893</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="2"/>
+        <v>['Portugal', 1.36642226614649],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1">
-        <v>14367.716966656817</v>
+        <v>13897.073742635057</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>['Portugal', 14367],</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>['Azerbaijan', 13897],</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(A55,popn!$A$2:$B$248,2,0)</f>
+        <v>9295784</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4949867319028773</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v>['Azerbaijan', 1.49498673190288],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
-        <v>13897.073742635057</v>
+        <v>13055.362836911692</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>['Azerbaijan', 13897],</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>['Finland', 13055],</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(A56,popn!$A$2:$B$248,2,0)</f>
+        <v>5413971</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4114209028662499</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="2"/>
+        <v>['Finland', 2.41142090286625],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>13055.362836911692</v>
+        <v>12835.629274219658</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>['Finland', 13055],</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>['Trinidad &amp; Tobago', 12835],</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(A57,popn!$A$2:$B$248,2,0)</f>
+        <v>1337439</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>9.597169870341494</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="2"/>
+        <v>['Trinidad &amp; Tobago', 9.59716987034149],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1">
-        <v>12835.629274219658</v>
+        <v>12675.221851083235</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>['Trinidad &amp; Tobago', 12835],</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>['Hungary', 12675],</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(A58,popn!$A$2:$B$248,2,0)</f>
+        <v>9920362</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2776975125588397</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="2"/>
+        <v>['Hungary', 1.27769751255884],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>12675.221851083235</v>
+        <v>12414.359814007172</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>['Hungary', 12675],</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>['Bulgaria', 12414],</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(A59,popn!$A$2:$B$248,2,0)</f>
+        <v>7305888</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>1.699226680453789</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="2"/>
+        <v>['Bulgaria', 1.69922668045379],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1">
-        <v>12414.359814007172</v>
+        <v>12232.977073612488</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>['Bulgaria', 12414],</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>['Sweden', 12232],</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(A60,popn!$A$2:$B$248,2,0)</f>
+        <v>9519374</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2850610842280688</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="2"/>
+        <v>['Sweden', 1.28506108422807],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>12232.977073612488</v>
+        <v>10483.038448486963</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>['Sweden', 12232],</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>['China Hong Kong SAR', 10483],</v>
+      </c>
+      <c r="D61" t="e">
+        <f>VLOOKUP(A61,popn!$A$2:$B$248,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
-        <v>10483.038448486963</v>
+        <v>10366.176395978035</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>['China Hong Kong SAR', 10483],</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>['Switzerland', 10366],</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(A62,popn!$A$2:$B$248,2,0)</f>
+        <v>7996861</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2962806776281386</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="2"/>
+        <v>['Switzerland', 1.29628067762814],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1">
-        <v>10366.176395978035</v>
+        <v>10007.632989994278</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>['Switzerland', 10366],</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>['Denmark', 10007],</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(A63,popn!$A$2:$B$248,2,0)</f>
+        <v>5591572</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7897709248837854</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="2"/>
+        <v>['Denmark', 1.78977092488379],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1">
-        <v>10007.632989994278</v>
+        <v>9889.6927845552054</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>['Denmark', 10007],</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>['Republic of Ireland', 9889],</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(A64,popn!$A$2:$B$248,2,0)</f>
+        <v>4586897</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="1"/>
+        <v>2.15607474607675</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="2"/>
+        <v>['Republic of Ireland', 2.15607474607675],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1">
-        <v>9889.6927845552054</v>
+        <v>9689.3621084826627</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>['Republic of Ireland', 9889],</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>['Slovakia', 9689],</v>
+      </c>
+      <c r="D65" t="e">
+        <f>VLOOKUP(A65,popn!$A$2:$B$248,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>9689.3621084826627</v>
+        <v>9513.9366238645707</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>['Slovakia', 9689],</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <f t="shared" ref="C66:C69" si="3">CONCATENATE("['",A66,"', ",INT(B66),"],")</f>
+        <v>['Ecuador', 9513],</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP(A66,popn!$A$2:$B$248,2,0)</f>
+        <v>15492264</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6141088625822908</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="2"/>
+        <v>['Ecuador', 0.614108862582291],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>9513.9366238645707</v>
+        <v>8852.4563185252373</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C70" si="1">CONCATENATE("['",A67,"', ",INT(B67),"],")</f>
-        <v>['Ecuador', 9513],</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>['New Zealand', 8852],</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(A67,popn!$A$2:$B$248,2,0)</f>
+        <v>4408100</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E69" si="4">B67/D67*1000</f>
+        <v>2.0082249310417728</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F69" si="5">CONCATENATE("['",A67,"', ",E67,"],")</f>
+        <v>['New Zealand', 2.00822493104177],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
-        <v>8852.4563185252373</v>
+        <v>3718.3905708440489</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>['New Zealand', 8852],</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>['Lithuania', 3718],</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP(A68,popn!$A$2:$B$248,2,0)</f>
+        <v>2987773</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2445358368403654</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="5"/>
+        <v>['Lithuania', 1.24453583684037],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>3718.3905708440489</v>
+        <v>3587.6411665787928</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>['Lithuania', 3718],</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="1">
-        <v>3587.6411665787928</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>['Singapore', 3587],</v>
       </c>
+      <c r="D69">
+        <f>VLOOKUP(A69,popn!$A$2:$B$248,2,0)</f>
+        <v>5312400</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="4"/>
+        <v>0.67533340233769912</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="5"/>
+        <v>['Singapore', 0.675333402337699],</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C70">
+  <autoFilter ref="A1:C69">
     <sortState ref="A2:C70">
       <sortCondition descending="1" ref="B1:B70"/>
     </sortState>
@@ -11286,4 +12658,2012 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B248"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>102384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>78360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>29824536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>20820525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>2900489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>362466629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>9205651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>41086927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>2969081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>55128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>89069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>22728300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>8429991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>9295784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <v>9849569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>11128246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>10050702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>16460141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>154695368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>7305888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>1317827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23">
+        <v>371960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24">
+        <v>3833916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>9464000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <v>324060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <v>64798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>10496285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>198656019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>283221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>412238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>741822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33">
+        <v>2003910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34">
+        <v>4525209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34752128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>104408027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>7996861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38">
+        <v>161235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>17464814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>1350695000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>19839750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>21699631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43">
+        <v>4337051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>47704427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <v>717503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46">
+        <v>494401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>4805295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>6964458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49">
+        <v>11270957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50">
+        <v>152086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51">
+        <v>57570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52">
+        <v>1128994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>10510785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>80425823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55">
+        <v>859652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56">
+        <v>71684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>5591572</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58">
+        <v>10276621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>38481705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60">
+        <v>1991555125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61">
+        <v>2233703405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62">
+        <v>270476087</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63">
+        <v>895431689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>15492264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>80721874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66">
+        <v>336198768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <v>6130922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>46773055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69">
+        <v>1322696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70">
+        <v>91728849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71">
+        <v>505608515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72">
+        <v>436224882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <v>5413971</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74">
+        <v>874742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>65649570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76">
+        <v>49506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77">
+        <v>103395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78">
+        <v>1632572</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79">
+        <v>63700300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80">
+        <v>4490700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81">
+        <v>25366462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82">
+        <v>11451273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83">
+        <v>1791225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84">
+        <v>1663558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85">
+        <v>736296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86">
+        <v>11092771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87">
+        <v>105483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88">
+        <v>56810</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89">
+        <v>15082831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90">
+        <v>162810</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91">
+        <v>795369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92">
+        <v>1299453762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93">
+        <v>7154600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94">
+        <v>7935846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95">
+        <v>655971763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96">
+        <v>4267558</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97">
+        <v>10173775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98">
+        <v>9920362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99">
+        <v>246864191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100">
+        <v>85284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101">
+        <v>1236686732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102">
+        <v>4586897</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103">
+        <v>76424443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104">
+        <v>32578209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105">
+        <v>320716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>7910500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107">
+        <v>59539717</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108">
+        <v>2707805</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109">
+        <v>6318000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110">
+        <v>127561489</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>16791425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112">
+        <v>43178141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113">
+        <v>5607200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114">
+        <v>14864646</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115">
+        <v>100786</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116">
+        <v>53584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117">
+        <v>50004441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118">
+        <v>1807106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119">
+        <v>3250496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120">
+        <v>581379260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121">
+        <v>6645827</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122">
+        <v>4424888</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123">
+        <v>4190435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124">
+        <v>6154623</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125">
+        <v>180870</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126">
+        <v>608545934</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>188</v>
+      </c>
+      <c r="B127">
+        <v>877943413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128">
+        <v>830035274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129">
+        <v>36656</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130">
+        <v>20328000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131">
+        <v>2523370023</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132">
+        <v>5743727652</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133">
+        <v>2051545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134">
+        <v>2987773</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135">
+        <v>530946</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136">
+        <v>2034319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137">
+        <v>556783</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138">
+        <v>30959</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139">
+        <v>32521143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140">
+        <v>37579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141">
+        <v>3559519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142">
+        <v>22293914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143">
+        <v>338442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144">
+        <v>395316900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>120847477</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146">
+        <v>52555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147">
+        <v>4913692378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>207</v>
+      </c>
+      <c r="B148">
+        <v>2105575</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149">
+        <v>14853572</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150">
+        <v>419455</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151">
+        <v>52797319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>211</v>
+      </c>
+      <c r="B152">
+        <v>339560601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153">
+        <v>621081</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154">
+        <v>2796484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155">
+        <v>53305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>215</v>
+      </c>
+      <c r="B156">
+        <v>25203395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157">
+        <v>3796141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158">
+        <v>1255882</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>218</v>
+      </c>
+      <c r="B159">
+        <v>15906483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160">
+        <v>29239927</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161">
+        <v>348690611</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162">
+        <v>2259393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164">
+        <v>17157042</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>168833776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166">
+        <v>5991733</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167">
+        <v>16754962</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>225</v>
+      </c>
+      <c r="B168">
+        <v>249928024</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169">
+        <v>5018573</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170">
+        <v>27474377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171">
+        <v>4408100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172">
+        <v>1049525738</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173">
+        <v>1254290705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>229</v>
+      </c>
+      <c r="B174">
+        <v>3314001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>230</v>
+      </c>
+      <c r="B175">
+        <v>19823626</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176">
+        <v>179160111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>231</v>
+      </c>
+      <c r="B177">
+        <v>3802281</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>29987800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>69</v>
+      </c>
+      <c r="B179">
+        <v>96706764</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>232</v>
+      </c>
+      <c r="B180">
+        <v>20754</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>233</v>
+      </c>
+      <c r="B181">
+        <v>7167010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182">
+        <v>38535873</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183">
+        <v>3651545</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184">
+        <v>24763188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185">
+        <v>10514844</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186">
+        <v>6687361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187">
+        <v>2252782</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188">
+        <v>273814</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189">
+        <v>2050514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190">
+        <v>20058035</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191">
+        <v>143178000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192">
+        <v>11457801</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193">
+        <v>1649249388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194">
+        <v>28287855</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195">
+        <v>37195349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196">
+        <v>13726021</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197">
+        <v>5312400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198">
+        <v>549598</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199">
+        <v>5978727</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>244</v>
+      </c>
+      <c r="B200">
+        <v>6297394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>245</v>
+      </c>
+      <c r="B201">
+        <v>31247</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>246</v>
+      </c>
+      <c r="B202">
+        <v>10195134</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>247</v>
+      </c>
+      <c r="B203">
+        <v>7199077</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>248</v>
+      </c>
+      <c r="B204">
+        <v>911507191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>249</v>
+      </c>
+      <c r="B205">
+        <v>10837527</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206">
+        <v>912243487</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>251</v>
+      </c>
+      <c r="B207">
+        <v>29040866</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>252</v>
+      </c>
+      <c r="B208">
+        <v>188098</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>253</v>
+      </c>
+      <c r="B209">
+        <v>534541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>254</v>
+      </c>
+      <c r="B210">
+        <v>5407579</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>255</v>
+      </c>
+      <c r="B211">
+        <v>2057159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>37</v>
+      </c>
+      <c r="B212">
+        <v>9519374</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>256</v>
+      </c>
+      <c r="B213">
+        <v>1230985</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>257</v>
+      </c>
+      <c r="B214">
+        <v>39088</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>258</v>
+      </c>
+      <c r="B215">
+        <v>88303</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>259</v>
+      </c>
+      <c r="B216">
+        <v>22399254</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>260</v>
+      </c>
+      <c r="B217">
+        <v>32427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>261</v>
+      </c>
+      <c r="B218">
+        <v>12448175</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>262</v>
+      </c>
+      <c r="B219">
+        <v>6642928</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>73</v>
+      </c>
+      <c r="B220">
+        <v>66785001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>263</v>
+      </c>
+      <c r="B221">
+        <v>8008990</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222">
+        <v>5172931</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223">
+        <v>1148958</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>265</v>
+      </c>
+      <c r="B224">
+        <v>104941</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225">
+        <v>1337439</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226">
+        <v>10777500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>39</v>
+      </c>
+      <c r="B227">
+        <v>73997128</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228">
+        <v>9860</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>268</v>
+      </c>
+      <c r="B229">
+        <v>47783107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230">
+        <v>36345860</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>41</v>
+      </c>
+      <c r="B231">
+        <v>45593300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232">
+        <v>2390322355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>271</v>
+      </c>
+      <c r="B233">
+        <v>3395253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>313873685</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235">
+        <v>29774500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236">
+        <v>109373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237">
+        <v>29954782</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>273</v>
+      </c>
+      <c r="B238">
+        <v>105275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>74</v>
+      </c>
+      <c r="B239">
+        <v>88772900</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>274</v>
+      </c>
+      <c r="B240">
+        <v>247262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>275</v>
+      </c>
+      <c r="B241">
+        <v>4046901</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>276</v>
+      </c>
+      <c r="B242">
+        <v>7043181414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>277</v>
+      </c>
+      <c r="B243">
+        <v>188889</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>278</v>
+      </c>
+      <c r="B244">
+        <v>23852409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245">
+        <v>52341695</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>279</v>
+      </c>
+      <c r="B246">
+        <v>65705093</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>280</v>
+      </c>
+      <c r="B247">
+        <v>14075099</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>281</v>
+      </c>
+      <c r="B248">
+        <v>13724317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/3-climate-change/data/CO2_emissions_2012.xlsx
+++ b/3-climate-change/data/CO2_emissions_2012.xlsx
@@ -13,7 +13,7 @@
     <sheet name="popn" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CURATED!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CURATED!$A$1:$F$69</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -944,10 +944,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -990,7 +994,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1010,6 +1014,8 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1028,6 +1034,8 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -10998,8 +11006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11060,7 +11068,7 @@
         <v>1396790.7648451091</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C65" si="0">CONCATENATE("['",A3,"', ",INT(B3),"],")</f>
+        <f>CONCATENATE("['",A3,"', ",INT(B3),"],")</f>
         <v>['US', 1396790],</v>
       </c>
       <c r="D3">
@@ -11068,11 +11076,11 @@
         <v>313873685</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">B3/D3*1000</f>
+        <f>B3/D3*1000</f>
         <v>4.4501684327091935</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="2">CONCATENATE("['",A3,"', ",E3,"],")</f>
+        <f>CONCATENATE("['",A3,"', ",E3,"],")</f>
         <v>['US', 4.45016843270919],</v>
       </c>
     </row>
@@ -11084,7 +11092,7 @@
         <v>611226.32316958916</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A4,"', ",INT(B4),"],")</f>
         <v>['India', 611226],</v>
       </c>
       <c r="D4">
@@ -11092,11 +11100,11 @@
         <v>1236686732</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f>B4/D4*1000</f>
         <v>0.49424507221897584</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A4,"', ",E4,"],")</f>
         <v>['India', 0.494245072218976],</v>
       </c>
     </row>
@@ -11108,7 +11116,7 @@
         <v>491840.33543909399</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A5,"', ",INT(B5),"],")</f>
         <v>['Russian Federation', 491840],</v>
       </c>
       <c r="D5">
@@ -11116,11 +11124,11 @@
         <v>143178000</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f>B5/D5*1000</f>
         <v>3.4351669630745922</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A5,"', ",E5,"],")</f>
         <v>['Russian Federation', 3.43516696307459],</v>
       </c>
     </row>
@@ -11132,7 +11140,7 @@
         <v>342270.02191037923</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A6,"', ",INT(B6),"],")</f>
         <v>['Japan', 342270],</v>
       </c>
       <c r="D6">
@@ -11140,11 +11148,11 @@
         <v>127561489</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f>B6/D6*1000</f>
         <v>2.6831767533724791</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A6,"', ",E6,"],")</f>
         <v>['Japan', 2.68317675337248],</v>
       </c>
     </row>
@@ -11156,7 +11164,7 @@
         <v>199716.14896148487</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A7,"', ",INT(B7),"],")</f>
         <v>['Germany', 199716],</v>
       </c>
       <c r="D7">
@@ -11164,11 +11172,11 @@
         <v>80425823</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f>B7/D7*1000</f>
         <v>2.4832341344083586</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A7,"', ",E7,"],")</f>
         <v>['Germany', 2.48323413440836],</v>
       </c>
     </row>
@@ -11180,7 +11188,7 @@
         <v>166679.15746470925</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A8,"', ",INT(B8),"],")</f>
         <v>['South Korea', 166679],</v>
       </c>
       <c r="D8">
@@ -11188,11 +11196,11 @@
         <v>50004441</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f>B8/D8*1000</f>
         <v>3.3332870867351412</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A8,"', ",E8,"],")</f>
         <v>['South Korea', 3.33328708673514],</v>
       </c>
     </row>
@@ -11204,7 +11212,7 @@
         <v>164497.67410158212</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A9,"', ",INT(B9),"],")</f>
         <v>['Iran', 164497],</v>
       </c>
       <c r="D9">
@@ -11212,11 +11220,11 @@
         <v>76424443</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f>B9/D9*1000</f>
         <v>2.1524222832946536</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A9,"', ",E9,"],")</f>
         <v>['Iran', 2.15242228329465],</v>
       </c>
     </row>
@@ -11228,7 +11236,7 @@
         <v>137877.70810957171</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A10,"', ",INT(B10),"],")</f>
         <v>['Saudi Arabia', 137877],</v>
       </c>
       <c r="D10">
@@ -11236,11 +11244,11 @@
         <v>28287855</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f>B10/D10*1000</f>
         <v>4.8740955477031296</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A10,"', ",E10,"],")</f>
         <v>['Saudi Arabia', 4.87409554770313],</v>
       </c>
     </row>
@@ -11252,7 +11260,7 @@
         <v>137819.83011260908</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A11,"', ",INT(B11),"],")</f>
         <v>['Canada', 137819],</v>
       </c>
       <c r="D11">
@@ -11260,11 +11268,11 @@
         <v>34752128</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f>B11/D11*1000</f>
         <v>3.9657954215813507</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A11,"', ",E11,"],")</f>
         <v>['Canada', 3.96579542158135],</v>
       </c>
     </row>
@@ -11276,7 +11284,7 @@
         <v>129987.63422779723</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A12,"', ",INT(B12),"],")</f>
         <v>['Indonesia', 129987],</v>
       </c>
       <c r="D12">
@@ -11284,11 +11292,11 @@
         <v>246864191</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f>B12/D12*1000</f>
         <v>0.52655524359868466</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A12,"', ",E12,"],")</f>
         <v>['Indonesia', 0.526555243598685],</v>
       </c>
     </row>
@@ -11300,7 +11308,7 @@
         <v>129942.37582630581</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A13,"', ",INT(B13),"],")</f>
         <v>['Mexico', 129942],</v>
       </c>
       <c r="D13">
@@ -11308,11 +11316,11 @@
         <v>120847477</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f>B13/D13*1000</f>
         <v>1.0752593190365556</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A13,"', ",E13,"],")</f>
         <v>['Mexico', 1.07525931903656],</v>
       </c>
     </row>
@@ -11324,7 +11332,7 @@
         <v>128494.04064963351</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A14,"', ",INT(B14),"],")</f>
         <v>['United Kingdom', 128494],</v>
       </c>
       <c r="D14">
@@ -11332,11 +11340,11 @@
         <v>63700300</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f>B14/D14*1000</f>
         <v>2.0171653924649258</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A14,"', ",E14,"],")</f>
         <v>['United Kingdom', 2.01716539246493],</v>
       </c>
     </row>
@@ -11348,7 +11356,7 @@
         <v>125741.87230816028</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A15,"', ",INT(B15),"],")</f>
         <v>['South Africa', 125741],</v>
       </c>
       <c r="D15">
@@ -11356,11 +11364,11 @@
         <v>52341695</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f>B15/D15*1000</f>
         <v>2.4023270990394998</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A15,"', ",E15,"],")</f>
         <v>['South Africa', 2.4023270990395],</v>
       </c>
     </row>
@@ -11372,7 +11380,7 @@
         <v>122082.41549725691</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A16,"', ",INT(B16),"],")</f>
         <v>['Brazil', 122082],</v>
       </c>
       <c r="D16">
@@ -11380,11 +11388,11 @@
         <v>198656019</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f>B16/D16*1000</f>
         <v>0.614541739594897</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A16,"', ",E16,"],")</f>
         <v>['Brazil', 0.614541739594897],</v>
       </c>
     </row>
@@ -11396,7 +11404,7 @@
         <v>108880.73748252774</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A17,"', ",INT(B17),"],")</f>
         <v>['Other Africa', 108880],</v>
       </c>
       <c r="D17" t="e">
@@ -11404,7 +11412,7 @@
         <v>#N/A</v>
       </c>
       <c r="E17" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f>B17/D17*1000</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11416,7 +11424,7 @@
         <v>102368.62639672708</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A18,"', ",INT(B18),"],")</f>
         <v>['Italy', 102368],</v>
       </c>
       <c r="D18">
@@ -11424,11 +11432,11 @@
         <v>59539717</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f>B18/D18*1000</f>
         <v>1.7193334391684643</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A18,"', ",E18,"],")</f>
         <v>['Italy', 1.71933343916846],</v>
       </c>
     </row>
@@ -11440,7 +11448,7 @@
         <v>101147.00533811742</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A19,"', ",INT(B19),"],")</f>
         <v>['Australia', 101147],</v>
       </c>
       <c r="D19">
@@ -11448,11 +11456,11 @@
         <v>22728300</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f>B19/D19*1000</f>
         <v>4.4502670828050244</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A19,"', ",E19,"],")</f>
         <v>['Australia', 4.45026708280502],</v>
       </c>
     </row>
@@ -11464,7 +11472,7 @@
         <v>93712.565440615203</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A20,"', ",INT(B20),"],")</f>
         <v>['France', 93712],</v>
       </c>
       <c r="D20">
@@ -11472,11 +11480,11 @@
         <v>65649570</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f>B20/D20*1000</f>
         <v>1.4274665537126168</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A20,"', ",E20,"],")</f>
         <v>['France', 1.42746655371262],</v>
       </c>
     </row>
@@ -11488,7 +11496,7 @@
         <v>88383.891280419644</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A21,"', ",INT(B21),"],")</f>
         <v>['Ukraine', 88383],</v>
       </c>
       <c r="D21">
@@ -11496,11 +11504,11 @@
         <v>45593300</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f>B21/D21*1000</f>
         <v>1.9385280574211485</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A21,"', ",E21,"],")</f>
         <v>['Ukraine', 1.93852805742115],</v>
       </c>
     </row>
@@ -11512,7 +11520,7 @@
         <v>88044.0968255185</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A22,"', ",INT(B22),"],")</f>
         <v>['Thailand', 88044],</v>
       </c>
       <c r="D22">
@@ -11520,11 +11528,11 @@
         <v>66785001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f>B22/D22*1000</f>
         <v>1.3183214121014761</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A22,"', ",E22,"],")</f>
         <v>['Thailand', 1.31832141210148],</v>
       </c>
     </row>
@@ -11536,7 +11544,7 @@
         <v>84860.632914475194</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A23,"', ",INT(B23),"],")</f>
         <v>['Turkey', 84860],</v>
       </c>
       <c r="D23">
@@ -11544,11 +11552,11 @@
         <v>73997128</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f>B23/D23*1000</f>
         <v>1.1468098182739632</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A23,"', ",E23,"],")</f>
         <v>['Turkey', 1.14680981827396],</v>
       </c>
     </row>
@@ -11560,7 +11568,7 @@
         <v>83894.730079754285</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A24,"', ",INT(B24),"],")</f>
         <v>['Poland', 83894],</v>
       </c>
       <c r="D24">
@@ -11568,11 +11576,11 @@
         <v>38535873</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f>B24/D24*1000</f>
         <v>2.1770553914726234</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A24,"', ",E24,"],")</f>
         <v>['Poland', 2.17705539147262],</v>
       </c>
     </row>
@@ -11584,7 +11592,7 @@
         <v>79616.824283165581</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A25,"', ",INT(B25),"],")</f>
         <v>['Kazakhstan', 79616],</v>
       </c>
       <c r="D25">
@@ -11592,11 +11600,11 @@
         <v>16791425</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f>B25/D25*1000</f>
         <v>4.7415168327384718</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A25,"', ",E25,"],")</f>
         <v>['Kazakhstan', 4.74151683273847],</v>
       </c>
     </row>
@@ -11608,7 +11616,7 @@
         <v>75676.701894265265</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A26,"', ",INT(B26),"],")</f>
         <v>['Spain', 75676],</v>
       </c>
       <c r="D26">
@@ -11616,11 +11624,11 @@
         <v>46773055</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f>B26/D26*1000</f>
         <v>1.617955078928782</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A26,"', ",E26,"],")</f>
         <v>['Spain', 1.61795507892878],</v>
       </c>
     </row>
@@ -11632,7 +11640,7 @@
         <v>71558.817520396173</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A27,"', ",INT(B27),"],")</f>
         <v>['Taiwan', 71558],</v>
       </c>
       <c r="D27" t="e">
@@ -11640,7 +11648,7 @@
         <v>#N/A</v>
       </c>
       <c r="E27" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f>B27/D27*1000</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11652,7 +11660,7 @@
         <v>58952.860837533932</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A28,"', ",INT(B28),"],")</f>
         <v>['Malaysia', 58952],</v>
       </c>
       <c r="D28">
@@ -11660,11 +11668,11 @@
         <v>29239927</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f>B28/D28*1000</f>
         <v>2.0161767448165633</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A28,"', ",E28,"],")</f>
         <v>['Malaysia', 2.01617674481656],</v>
       </c>
     </row>
@@ -11676,7 +11684,7 @@
         <v>58649.554507574256</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A29,"', ",INT(B29),"],")</f>
         <v>['Egypt', 58649],</v>
       </c>
       <c r="D29">
@@ -11684,11 +11692,11 @@
         <v>80721874</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f>B29/D29*1000</f>
         <v>0.72656334152468083</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A29,"', ",E29,"],")</f>
         <v>['Egypt', 0.726563341524681],</v>
       </c>
     </row>
@@ -11700,7 +11708,7 @@
         <v>56599.572881389635</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A30,"', ",INT(B30),"],")</f>
         <v>['Venezuela', 56599],</v>
       </c>
       <c r="D30">
@@ -11708,11 +11716,11 @@
         <v>29954782</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f>B30/D30*1000</f>
         <v>1.8895004103648505</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A30,"', ",E30,"],")</f>
         <v>['Venezuela', 1.88950041036485],</v>
       </c>
     </row>
@@ -11724,7 +11732,7 @@
         <v>53547.937624577215</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A31,"', ",INT(B31),"],")</f>
         <v>['Argentina', 53547],</v>
       </c>
       <c r="D31">
@@ -11732,11 +11740,11 @@
         <v>41086927</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f>B31/D31*1000</f>
         <v>1.3032840743864154</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A31,"', ",E31,"],")</f>
         <v>['Argentina', 1.30328407438642],</v>
       </c>
     </row>
@@ -11748,7 +11756,7 @@
         <v>46720.745295175308</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A32,"', ",INT(B32),"],")</f>
         <v>['United Arab Emirates', 46720],</v>
       </c>
       <c r="D32">
@@ -11756,11 +11764,11 @@
         <v>9205651</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f>B32/D32*1000</f>
         <v>5.0752244784399609</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A32,"', ",E32,"],")</f>
         <v>['United Arab Emirates', 5.07522447843996],</v>
       </c>
     </row>
@@ -11772,7 +11780,7 @@
         <v>45421.391169338378</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A33,"', ",INT(B33),"],")</f>
         <v>['Netherlands', 45421],</v>
       </c>
       <c r="D33">
@@ -11780,11 +11788,11 @@
         <v>16754962</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f>B33/D33*1000</f>
         <v>2.710921765703699</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A33,"', ",E33,"],")</f>
         <v>['Netherlands', 2.7109217657037],</v>
       </c>
     </row>
@@ -11796,7 +11804,7 @@
         <v>44624.503473974044</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A34,"', ",INT(B34),"],")</f>
         <v>['Vietnam', 44624],</v>
       </c>
       <c r="D34">
@@ -11804,11 +11812,11 @@
         <v>88772900</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f>B34/D34*1000</f>
         <v>0.50268160073596824</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A34,"', ",E34,"],")</f>
         <v>['Vietnam', 0.502681600735968],</v>
       </c>
     </row>
@@ -11820,7 +11828,7 @@
         <v>44051.877142625519</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A35,"', ",INT(B35),"],")</f>
         <v>['Pakistan', 44051],</v>
       </c>
       <c r="D35">
@@ -11828,11 +11836,11 @@
         <v>179160111</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f>B35/D35*1000</f>
         <v>0.24587993888118054</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A35,"', ",E35,"],")</f>
         <v>['Pakistan', 0.245879938881181],</v>
       </c>
     </row>
@@ -11844,7 +11852,7 @@
         <v>37669.831280628729</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A36,"', ",INT(B36),"],")</f>
         <v>['Algeria', 37669],</v>
       </c>
       <c r="D36">
@@ -11852,11 +11860,11 @@
         <v>38481705</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f>B36/D36*1000</f>
         <v>0.97890234542956778</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A36,"', ",E36,"],")</f>
         <v>['Algeria', 0.978902345429568],</v>
       </c>
     </row>
@@ -11868,7 +11876,7 @@
         <v>30047.57970204344</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A37,"', ",INT(B37),"],")</f>
         <v>['Uzbekistan', 30047],</v>
       </c>
       <c r="D37">
@@ -11876,11 +11884,11 @@
         <v>29774500</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f>B37/D37*1000</f>
         <v>1.0091715965689916</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A37,"', ",E37,"],")</f>
         <v>['Uzbekistan', 1.00917159656899],</v>
       </c>
     </row>
@@ -11892,7 +11900,7 @@
         <v>28288.208953162346</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A38,"', ",INT(B38),"],")</f>
         <v>['Czech Republic', 28288],</v>
       </c>
       <c r="D38">
@@ -11900,11 +11908,11 @@
         <v>10510785</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f>B38/D38*1000</f>
         <v>2.6913507367111347</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A38,"', ",E38,"],")</f>
         <v>['Czech Republic', 2.69135073671113],</v>
       </c>
     </row>
@@ -11916,7 +11924,7 @@
         <v>27050.534949886813</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A39,"', ",INT(B39),"],")</f>
         <v>['Belgium', 27050],</v>
       </c>
       <c r="D39">
@@ -11924,11 +11932,11 @@
         <v>11128246</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
+        <f>B39/D39*1000</f>
         <v>2.4307995123298687</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A39,"', ",E39,"],")</f>
         <v>['Belgium', 2.43079951232987],</v>
       </c>
     </row>
@@ -11940,7 +11948,7 @@
         <v>26357.955150148671</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A40,"', ",INT(B40),"],")</f>
         <v>['Kuwait', 26357],</v>
       </c>
       <c r="D40">
@@ -11948,11 +11956,11 @@
         <v>3250496</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f>B40/D40*1000</f>
         <v>8.1089025029252984</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A40,"', ",E40,"],")</f>
         <v>['Kuwait', 8.1089025029253],</v>
       </c>
     </row>
@@ -11964,7 +11972,7 @@
         <v>24778.588030401319</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A41,"', ",INT(B41),"],")</f>
         <v>['Chile', 24778],</v>
       </c>
       <c r="D41">
@@ -11972,11 +11980,11 @@
         <v>17464814</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
+        <f>B41/D41*1000</f>
         <v>1.4187719394206728</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A41,"', ",E41,"],")</f>
         <v>['Chile', 1.41877193942067],</v>
       </c>
     </row>
@@ -11988,7 +11996,7 @@
         <v>24662.641373500301</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A42,"', ",INT(B42),"],")</f>
         <v>['Qatar', 24662],</v>
       </c>
       <c r="D42">
@@ -11996,11 +12004,11 @@
         <v>2050514</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f>B42/D42*1000</f>
         <v>12.027541081650893</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A42,"', ",E42,"],")</f>
         <v>['Qatar', 12.0275410816509],</v>
       </c>
     </row>
@@ -12012,7 +12020,7 @@
         <v>23624.612841412923</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A43,"', ",INT(B43),"],")</f>
         <v>['Philippines', 23624],</v>
       </c>
       <c r="D43">
@@ -12020,11 +12028,11 @@
         <v>96706764</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f>B43/D43*1000</f>
         <v>0.24429121463947367</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A43,"', ",E43,"],")</f>
         <v>['Philippines', 0.244291214639474],</v>
       </c>
     </row>
@@ -12036,7 +12044,7 @@
         <v>22289.532632336344</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A44,"', ",INT(B44),"],")</f>
         <v>['Greece', 22289],</v>
       </c>
       <c r="D44">
@@ -12044,11 +12052,11 @@
         <v>11092771</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
+        <f>B44/D44*1000</f>
         <v>2.0093746307695652</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A44,"', ",E44,"],")</f>
         <v>['Greece', 2.00937463076957],</v>
       </c>
     </row>
@@ -12060,7 +12068,7 @@
         <v>22210.831051712248</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A45,"', ",INT(B45),"],")</f>
         <v>['Romania', 22210],</v>
       </c>
       <c r="D45">
@@ -12068,11 +12076,11 @@
         <v>20058035</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="1"/>
+        <f>B45/D45*1000</f>
         <v>1.1073283625096999</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A45,"', ",E45,"],")</f>
         <v>['Romania', 1.1073283625097],</v>
       </c>
     </row>
@@ -12084,7 +12092,7 @@
         <v>21981.374513227292</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A46,"', ",INT(B46),"],")</f>
         <v>['Colombia', 21981],</v>
       </c>
       <c r="D46">
@@ -12092,11 +12100,11 @@
         <v>47704427</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="1"/>
+        <f>B46/D46*1000</f>
         <v>0.46078269660858295</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A46,"', ",E46,"],")</f>
         <v>['Colombia', 0.460782696608583],</v>
       </c>
     </row>
@@ -12108,7 +12116,7 @@
         <v>20928.274947645612</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A47,"', ",INT(B47),"],")</f>
         <v>['Israel', 20928],</v>
       </c>
       <c r="D47">
@@ -12116,11 +12124,11 @@
         <v>7910500</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="1"/>
+        <f>B47/D47*1000</f>
         <v>2.6456323807149502</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A47,"', ",E47,"],")</f>
         <v>['Israel', 2.64563238071495],</v>
       </c>
     </row>
@@ -12132,7 +12140,7 @@
         <v>17805.006345243961</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A48,"', ",INT(B48),"],")</f>
         <v>['Peru', 17805],</v>
       </c>
       <c r="D48">
@@ -12140,11 +12148,11 @@
         <v>29987800</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="1"/>
+        <f>B48/D48*1000</f>
         <v>0.59374166645248938</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A48,"', ",E48,"],")</f>
         <v>['Peru', 0.593741666452489],</v>
       </c>
     </row>
@@ -12156,7 +12164,7 @@
         <v>17707.259472079972</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A49,"', ",INT(B49),"],")</f>
         <v>['Bangladesh', 17707],</v>
       </c>
       <c r="D49">
@@ -12164,11 +12172,11 @@
         <v>154695368</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
+        <f>B49/D49*1000</f>
         <v>0.11446535019768642</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A49,"', ",E49,"],")</f>
         <v>['Bangladesh', 0.114465350197686],</v>
       </c>
     </row>
@@ -12180,7 +12188,7 @@
         <v>16907.219335105743</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A50,"', ",INT(B50),"],")</f>
         <v>['Belarus', 16907],</v>
       </c>
       <c r="D50">
@@ -12188,11 +12196,11 @@
         <v>9464000</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="1"/>
+        <f>B50/D50*1000</f>
         <v>1.7864771064143854</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A50,"', ",E50,"],")</f>
         <v>['Belarus', 1.78647710641439],</v>
       </c>
     </row>
@@ -12204,7 +12212,7 @@
         <v>16312.18374570173</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A51,"', ",INT(B51),"],")</f>
         <v>['Austria', 16312],</v>
       </c>
       <c r="D51">
@@ -12212,11 +12220,11 @@
         <v>8429991</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
+        <f>B51/D51*1000</f>
         <v>1.9350179313004876</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A51,"', ",E51,"],")</f>
         <v>['Austria', 1.93501793130049],</v>
       </c>
     </row>
@@ -12228,7 +12236,7 @@
         <v>15835.25608083871</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A52,"', ",INT(B52),"],")</f>
         <v>['Norway', 15835],</v>
       </c>
       <c r="D52">
@@ -12236,11 +12244,11 @@
         <v>5018573</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
+        <f>B52/D52*1000</f>
         <v>3.1553304257681831</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A52,"', ",E52,"],")</f>
         <v>['Norway', 3.15533042576818],</v>
       </c>
     </row>
@@ -12252,7 +12260,7 @@
         <v>15059.267237126263</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A53,"', ",INT(B53),"],")</f>
         <v>['Turkmenistan', 15059],</v>
       </c>
       <c r="D53">
@@ -12260,11 +12268,11 @@
         <v>5172931</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f>B53/D53*1000</f>
         <v>2.9111672351953395</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A53,"', ",E53,"],")</f>
         <v>['Turkmenistan', 2.91116723519534],</v>
       </c>
     </row>
@@ -12276,7 +12284,7 @@
         <v>14367.716966656817</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A54,"', ",INT(B54),"],")</f>
         <v>['Portugal', 14367],</v>
       </c>
       <c r="D54">
@@ -12284,11 +12292,11 @@
         <v>10514844</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f>B54/D54*1000</f>
         <v>1.3664222661464893</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A54,"', ",E54,"],")</f>
         <v>['Portugal', 1.36642226614649],</v>
       </c>
     </row>
@@ -12300,7 +12308,7 @@
         <v>13897.073742635057</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A55,"', ",INT(B55),"],")</f>
         <v>['Azerbaijan', 13897],</v>
       </c>
       <c r="D55">
@@ -12308,11 +12316,11 @@
         <v>9295784</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
+        <f>B55/D55*1000</f>
         <v>1.4949867319028773</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A55,"', ",E55,"],")</f>
         <v>['Azerbaijan', 1.49498673190288],</v>
       </c>
     </row>
@@ -12324,7 +12332,7 @@
         <v>13055.362836911692</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A56,"', ",INT(B56),"],")</f>
         <v>['Finland', 13055],</v>
       </c>
       <c r="D56">
@@ -12332,11 +12340,11 @@
         <v>5413971</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
+        <f>B56/D56*1000</f>
         <v>2.4114209028662499</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A56,"', ",E56,"],")</f>
         <v>['Finland', 2.41142090286625],</v>
       </c>
     </row>
@@ -12348,7 +12356,7 @@
         <v>12835.629274219658</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A57,"', ",INT(B57),"],")</f>
         <v>['Trinidad &amp; Tobago', 12835],</v>
       </c>
       <c r="D57">
@@ -12356,11 +12364,11 @@
         <v>1337439</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="1"/>
+        <f>B57/D57*1000</f>
         <v>9.597169870341494</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A57,"', ",E57,"],")</f>
         <v>['Trinidad &amp; Tobago', 9.59716987034149],</v>
       </c>
     </row>
@@ -12372,7 +12380,7 @@
         <v>12675.221851083235</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A58,"', ",INT(B58),"],")</f>
         <v>['Hungary', 12675],</v>
       </c>
       <c r="D58">
@@ -12380,11 +12388,11 @@
         <v>9920362</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
+        <f>B58/D58*1000</f>
         <v>1.2776975125588397</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A58,"', ",E58,"],")</f>
         <v>['Hungary', 1.27769751255884],</v>
       </c>
     </row>
@@ -12396,7 +12404,7 @@
         <v>12414.359814007172</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A59,"', ",INT(B59),"],")</f>
         <v>['Bulgaria', 12414],</v>
       </c>
       <c r="D59">
@@ -12404,11 +12412,11 @@
         <v>7305888</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f>B59/D59*1000</f>
         <v>1.699226680453789</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A59,"', ",E59,"],")</f>
         <v>['Bulgaria', 1.69922668045379],</v>
       </c>
     </row>
@@ -12420,7 +12428,7 @@
         <v>12232.977073612488</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A60,"', ",INT(B60),"],")</f>
         <v>['Sweden', 12232],</v>
       </c>
       <c r="D60">
@@ -12428,11 +12436,11 @@
         <v>9519374</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
+        <f>B60/D60*1000</f>
         <v>1.2850610842280688</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A60,"', ",E60,"],")</f>
         <v>['Sweden', 1.28506108422807],</v>
       </c>
     </row>
@@ -12444,7 +12452,7 @@
         <v>10483.038448486963</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A61,"', ",INT(B61),"],")</f>
         <v>['China Hong Kong SAR', 10483],</v>
       </c>
       <c r="D61" t="e">
@@ -12452,7 +12460,7 @@
         <v>#N/A</v>
       </c>
       <c r="E61" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f>B61/D61*1000</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12464,7 +12472,7 @@
         <v>10366.176395978035</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A62,"', ",INT(B62),"],")</f>
         <v>['Switzerland', 10366],</v>
       </c>
       <c r="D62">
@@ -12472,11 +12480,11 @@
         <v>7996861</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
+        <f>B62/D62*1000</f>
         <v>1.2962806776281386</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A62,"', ",E62,"],")</f>
         <v>['Switzerland', 1.29628067762814],</v>
       </c>
     </row>
@@ -12488,7 +12496,7 @@
         <v>10007.632989994278</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A63,"', ",INT(B63),"],")</f>
         <v>['Denmark', 10007],</v>
       </c>
       <c r="D63">
@@ -12496,11 +12504,11 @@
         <v>5591572</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="1"/>
+        <f>B63/D63*1000</f>
         <v>1.7897709248837854</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A63,"', ",E63,"],")</f>
         <v>['Denmark', 1.78977092488379],</v>
       </c>
     </row>
@@ -12512,7 +12520,7 @@
         <v>9889.6927845552054</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A64,"', ",INT(B64),"],")</f>
         <v>['Republic of Ireland', 9889],</v>
       </c>
       <c r="D64">
@@ -12520,11 +12528,11 @@
         <v>4586897</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="1"/>
+        <f>B64/D64*1000</f>
         <v>2.15607474607675</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A64,"', ",E64,"],")</f>
         <v>['Republic of Ireland', 2.15607474607675],</v>
       </c>
     </row>
@@ -12536,7 +12544,7 @@
         <v>9689.3621084826627</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("['",A65,"', ",INT(B65),"],")</f>
         <v>['Slovakia', 9689],</v>
       </c>
       <c r="D65" t="e">
@@ -12544,7 +12552,7 @@
         <v>#N/A</v>
       </c>
       <c r="E65" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f>B65/D65*1000</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12556,7 +12564,7 @@
         <v>9513.9366238645707</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C69" si="3">CONCATENATE("['",A66,"', ",INT(B66),"],")</f>
+        <f>CONCATENATE("['",A66,"', ",INT(B66),"],")</f>
         <v>['Ecuador', 9513],</v>
       </c>
       <c r="D66">
@@ -12564,11 +12572,11 @@
         <v>15492264</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="1"/>
+        <f>B66/D66*1000</f>
         <v>0.6141088625822908</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE("['",A66,"', ",E66,"],")</f>
         <v>['Ecuador', 0.614108862582291],</v>
       </c>
     </row>
@@ -12580,7 +12588,7 @@
         <v>8852.4563185252373</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("['",A67,"', ",INT(B67),"],")</f>
         <v>['New Zealand', 8852],</v>
       </c>
       <c r="D67">
@@ -12588,11 +12596,11 @@
         <v>4408100</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E69" si="4">B67/D67*1000</f>
+        <f>B67/D67*1000</f>
         <v>2.0082249310417728</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F69" si="5">CONCATENATE("['",A67,"', ",E67,"],")</f>
+        <f>CONCATENATE("['",A67,"', ",E67,"],")</f>
         <v>['New Zealand', 2.00822493104177],</v>
       </c>
     </row>
@@ -12604,7 +12612,7 @@
         <v>3718.3905708440489</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("['",A68,"', ",INT(B68),"],")</f>
         <v>['Lithuania', 3718],</v>
       </c>
       <c r="D68">
@@ -12612,11 +12620,11 @@
         <v>2987773</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="4"/>
+        <f>B68/D68*1000</f>
         <v>1.2445358368403654</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("['",A68,"', ",E68,"],")</f>
         <v>['Lithuania', 1.24453583684037],</v>
       </c>
     </row>
@@ -12628,7 +12636,7 @@
         <v>3587.6411665787928</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("['",A69,"', ",INT(B69),"],")</f>
         <v>['Singapore', 3587],</v>
       </c>
       <c r="D69">
@@ -12636,20 +12644,16 @@
         <v>5312400</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="4"/>
+        <f>B69/D69*1000</f>
         <v>0.67533340233769912</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE("['",A69,"', ",E69,"],")</f>
         <v>['Singapore', 0.675333402337699],</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C69">
-    <sortState ref="A2:C70">
-      <sortCondition descending="1" ref="B1:B70"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
